--- a/NRI_STLF_Data/WeatherData/T_shiraz/T_shiraz95.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_shiraz/T_shiraz95.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NRST\WeatherData\T_shiraz\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
   <si>
     <t>Rain</t>
   </si>
@@ -28,6 +33,207 @@
   </si>
   <si>
     <t>Thunderstorm</t>
+  </si>
+  <si>
+    <t>287&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>292&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>273&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>275&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>286&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>298&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>262&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>279&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>269&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>284&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>81&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>261&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>300&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>289&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>283&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>253&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>259&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>257&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>277&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>73&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>76&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>58&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>271&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>333&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>306&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>299&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>280&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>344&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>323&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>248&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>264&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>272&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>304&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>290&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>47&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>50&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>22&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>84&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>42&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>282&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>351&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>38&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>20&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>109&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>181&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>274&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>258&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>278&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>69&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>239&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>150&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>16&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>285&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>45&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>245&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>350&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>165&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>352&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>301&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>124&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>87&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>142&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>132&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>197&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>325&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>103&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>340&lt;br /&gt;</t>
   </si>
 </sst>
 </file>
@@ -126,7 +332,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -161,7 +367,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="F157" sqref="F157:AA160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2174,6 +2380,69 @@
       <c r="E24">
         <v>1</v>
       </c>
+      <c r="F24">
+        <v>19</v>
+      </c>
+      <c r="G24">
+        <v>14</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>12</v>
+      </c>
+      <c r="J24">
+        <v>7</v>
+      </c>
+      <c r="K24">
+        <v>-3</v>
+      </c>
+      <c r="L24">
+        <v>94</v>
+      </c>
+      <c r="M24">
+        <v>59</v>
+      </c>
+      <c r="N24">
+        <v>23</v>
+      </c>
+      <c r="O24">
+        <v>1021</v>
+      </c>
+      <c r="P24">
+        <v>1018</v>
+      </c>
+      <c r="Q24">
+        <v>1009</v>
+      </c>
+      <c r="R24">
+        <v>10</v>
+      </c>
+      <c r="S24">
+        <v>7</v>
+      </c>
+      <c r="T24">
+        <v>5</v>
+      </c>
+      <c r="U24">
+        <v>34</v>
+      </c>
+      <c r="V24">
+        <v>5</v>
+      </c>
+      <c r="X24">
+        <v>0.51</v>
+      </c>
+      <c r="Y24">
+        <v>7</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>290</v>
+      </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25">
@@ -2191,6 +2460,69 @@
       <c r="E25">
         <v>1</v>
       </c>
+      <c r="F25">
+        <v>19</v>
+      </c>
+      <c r="G25">
+        <v>16</v>
+      </c>
+      <c r="H25">
+        <v>12</v>
+      </c>
+      <c r="I25">
+        <v>13</v>
+      </c>
+      <c r="J25">
+        <v>11</v>
+      </c>
+      <c r="K25">
+        <v>9</v>
+      </c>
+      <c r="L25">
+        <v>100</v>
+      </c>
+      <c r="M25">
+        <v>78</v>
+      </c>
+      <c r="N25">
+        <v>48</v>
+      </c>
+      <c r="O25">
+        <v>1018</v>
+      </c>
+      <c r="P25">
+        <v>1016</v>
+      </c>
+      <c r="Q25">
+        <v>1008</v>
+      </c>
+      <c r="R25">
+        <v>10</v>
+      </c>
+      <c r="S25">
+        <v>7</v>
+      </c>
+      <c r="T25">
+        <v>2</v>
+      </c>
+      <c r="U25">
+        <v>29</v>
+      </c>
+      <c r="V25">
+        <v>8</v>
+      </c>
+      <c r="X25">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="Y25">
+        <v>7</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>155</v>
+      </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -2208,6 +2540,69 @@
       <c r="E26">
         <v>1</v>
       </c>
+      <c r="F26">
+        <v>25</v>
+      </c>
+      <c r="G26">
+        <v>16</v>
+      </c>
+      <c r="H26">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>12</v>
+      </c>
+      <c r="J26">
+        <v>8</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+      <c r="L26">
+        <v>100</v>
+      </c>
+      <c r="M26">
+        <v>67</v>
+      </c>
+      <c r="N26">
+        <v>21</v>
+      </c>
+      <c r="O26">
+        <v>1018</v>
+      </c>
+      <c r="P26">
+        <v>1015</v>
+      </c>
+      <c r="Q26">
+        <v>1006</v>
+      </c>
+      <c r="R26">
+        <v>10</v>
+      </c>
+      <c r="S26">
+        <v>7</v>
+      </c>
+      <c r="T26">
+        <v>3</v>
+      </c>
+      <c r="U26">
+        <v>29</v>
+      </c>
+      <c r="V26">
+        <v>8</v>
+      </c>
+      <c r="X26">
+        <v>1.02</v>
+      </c>
+      <c r="Y26">
+        <v>3</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA26">
+        <v>172</v>
+      </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -2225,6 +2620,72 @@
       <c r="E27">
         <v>1</v>
       </c>
+      <c r="F27">
+        <v>21</v>
+      </c>
+      <c r="G27">
+        <v>16</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>12</v>
+      </c>
+      <c r="J27">
+        <v>7</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>100</v>
+      </c>
+      <c r="M27">
+        <v>61</v>
+      </c>
+      <c r="N27">
+        <v>23</v>
+      </c>
+      <c r="O27">
+        <v>1019</v>
+      </c>
+      <c r="P27">
+        <v>1016</v>
+      </c>
+      <c r="Q27">
+        <v>1007</v>
+      </c>
+      <c r="R27">
+        <v>10</v>
+      </c>
+      <c r="S27">
+        <v>9</v>
+      </c>
+      <c r="T27">
+        <v>5</v>
+      </c>
+      <c r="U27">
+        <v>40</v>
+      </c>
+      <c r="V27">
+        <v>10</v>
+      </c>
+      <c r="W27">
+        <v>52</v>
+      </c>
+      <c r="X27">
+        <v>0.76</v>
+      </c>
+      <c r="Y27">
+        <v>3</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA27">
+        <v>211</v>
+      </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -2242,6 +2703,69 @@
       <c r="E28">
         <v>1</v>
       </c>
+      <c r="F28">
+        <v>21</v>
+      </c>
+      <c r="G28">
+        <v>15</v>
+      </c>
+      <c r="H28">
+        <v>9</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>76</v>
+      </c>
+      <c r="M28">
+        <v>44</v>
+      </c>
+      <c r="N28">
+        <v>15</v>
+      </c>
+      <c r="O28">
+        <v>1019</v>
+      </c>
+      <c r="P28">
+        <v>1017</v>
+      </c>
+      <c r="Q28">
+        <v>1009</v>
+      </c>
+      <c r="R28">
+        <v>14</v>
+      </c>
+      <c r="S28">
+        <v>10</v>
+      </c>
+      <c r="T28">
+        <v>10</v>
+      </c>
+      <c r="U28">
+        <v>34</v>
+      </c>
+      <c r="V28">
+        <v>6</v>
+      </c>
+      <c r="W28">
+        <v>40</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <v>287</v>
+      </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29">
@@ -2259,6 +2783,66 @@
       <c r="E29">
         <v>1</v>
       </c>
+      <c r="F29">
+        <v>25</v>
+      </c>
+      <c r="G29">
+        <v>16</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>-9</v>
+      </c>
+      <c r="L29">
+        <v>81</v>
+      </c>
+      <c r="M29">
+        <v>39</v>
+      </c>
+      <c r="N29">
+        <v>4</v>
+      </c>
+      <c r="O29">
+        <v>1019</v>
+      </c>
+      <c r="P29">
+        <v>1016</v>
+      </c>
+      <c r="Q29">
+        <v>1008</v>
+      </c>
+      <c r="R29">
+        <v>14</v>
+      </c>
+      <c r="S29">
+        <v>11</v>
+      </c>
+      <c r="T29">
+        <v>10</v>
+      </c>
+      <c r="U29">
+        <v>26</v>
+      </c>
+      <c r="V29">
+        <v>8</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
+        <v>273</v>
+      </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30">
@@ -2276,6 +2860,66 @@
       <c r="E30">
         <v>1</v>
       </c>
+      <c r="F30">
+        <v>23</v>
+      </c>
+      <c r="G30">
+        <v>17</v>
+      </c>
+      <c r="H30">
+        <v>11</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>-5</v>
+      </c>
+      <c r="K30">
+        <v>-13</v>
+      </c>
+      <c r="L30">
+        <v>100</v>
+      </c>
+      <c r="M30">
+        <v>26</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30">
+        <v>1018</v>
+      </c>
+      <c r="P30">
+        <v>1015</v>
+      </c>
+      <c r="Q30">
+        <v>1007</v>
+      </c>
+      <c r="R30">
+        <v>14</v>
+      </c>
+      <c r="S30">
+        <v>12</v>
+      </c>
+      <c r="T30">
+        <v>10</v>
+      </c>
+      <c r="U30">
+        <v>29</v>
+      </c>
+      <c r="V30">
+        <v>11</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="AA30">
+        <v>286</v>
+      </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31">
@@ -2293,6 +2937,69 @@
       <c r="E31">
         <v>1</v>
       </c>
+      <c r="F31">
+        <v>23</v>
+      </c>
+      <c r="G31">
+        <v>16</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="I31">
+        <v>-2</v>
+      </c>
+      <c r="J31">
+        <v>-4</v>
+      </c>
+      <c r="K31">
+        <v>-7</v>
+      </c>
+      <c r="L31">
+        <v>43</v>
+      </c>
+      <c r="M31">
+        <v>24</v>
+      </c>
+      <c r="N31">
+        <v>7</v>
+      </c>
+      <c r="O31">
+        <v>1018</v>
+      </c>
+      <c r="P31">
+        <v>1015</v>
+      </c>
+      <c r="Q31">
+        <v>1007</v>
+      </c>
+      <c r="R31">
+        <v>14</v>
+      </c>
+      <c r="S31">
+        <v>10</v>
+      </c>
+      <c r="T31">
+        <v>10</v>
+      </c>
+      <c r="U31">
+        <v>26</v>
+      </c>
+      <c r="V31">
+        <v>11</v>
+      </c>
+      <c r="W31">
+        <v>37</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>3</v>
+      </c>
+      <c r="AA31">
+        <v>288</v>
+      </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32">
@@ -2310,8 +3017,68 @@
       <c r="E32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>24</v>
+      </c>
+      <c r="G32">
+        <v>15</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>-5</v>
+      </c>
+      <c r="K32">
+        <v>-12</v>
+      </c>
+      <c r="L32">
+        <v>61</v>
+      </c>
+      <c r="M32">
+        <v>24</v>
+      </c>
+      <c r="N32">
+        <v>5</v>
+      </c>
+      <c r="O32">
+        <v>1021</v>
+      </c>
+      <c r="P32">
+        <v>1019</v>
+      </c>
+      <c r="Q32">
+        <v>1010</v>
+      </c>
+      <c r="R32">
+        <v>14</v>
+      </c>
+      <c r="S32">
+        <v>11</v>
+      </c>
+      <c r="T32">
+        <v>10</v>
+      </c>
+      <c r="U32">
+        <v>19</v>
+      </c>
+      <c r="V32">
+        <v>6</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>6</v>
+      </c>
+      <c r="AA32">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>95</v>
       </c>
@@ -2327,8 +3094,68 @@
       <c r="E33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>26</v>
+      </c>
+      <c r="G33">
+        <v>16</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>-4</v>
+      </c>
+      <c r="K33">
+        <v>-10</v>
+      </c>
+      <c r="L33">
+        <v>61</v>
+      </c>
+      <c r="M33">
+        <v>24</v>
+      </c>
+      <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33">
+        <v>1022</v>
+      </c>
+      <c r="P33">
+        <v>1019</v>
+      </c>
+      <c r="Q33">
+        <v>1010</v>
+      </c>
+      <c r="R33">
+        <v>14</v>
+      </c>
+      <c r="S33">
+        <v>11</v>
+      </c>
+      <c r="T33">
+        <v>10</v>
+      </c>
+      <c r="U33">
+        <v>26</v>
+      </c>
+      <c r="V33">
+        <v>8</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="AA33">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>95</v>
       </c>
@@ -2344,8 +3171,65 @@
       <c r="E34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>27</v>
+      </c>
+      <c r="G34">
+        <v>17</v>
+      </c>
+      <c r="H34">
+        <v>6</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>-4</v>
+      </c>
+      <c r="K34">
+        <v>-14</v>
+      </c>
+      <c r="L34">
+        <v>57</v>
+      </c>
+      <c r="M34">
+        <v>24</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34">
+        <v>1021</v>
+      </c>
+      <c r="P34">
+        <v>1018</v>
+      </c>
+      <c r="Q34">
+        <v>1008</v>
+      </c>
+      <c r="R34">
+        <v>14</v>
+      </c>
+      <c r="S34">
+        <v>14</v>
+      </c>
+      <c r="T34">
+        <v>11</v>
+      </c>
+      <c r="U34">
+        <v>14</v>
+      </c>
+      <c r="V34">
+        <v>5</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>95</v>
       </c>
@@ -2361,8 +3245,68 @@
       <c r="E35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>28</v>
+      </c>
+      <c r="G35">
+        <v>19</v>
+      </c>
+      <c r="H35">
+        <v>11</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+      <c r="J35">
+        <v>-3</v>
+      </c>
+      <c r="K35">
+        <v>-17</v>
+      </c>
+      <c r="L35">
+        <v>58</v>
+      </c>
+      <c r="M35">
+        <v>23</v>
+      </c>
+      <c r="N35">
+        <v>4</v>
+      </c>
+      <c r="O35">
+        <v>1019</v>
+      </c>
+      <c r="P35">
+        <v>1016</v>
+      </c>
+      <c r="Q35">
+        <v>1005</v>
+      </c>
+      <c r="R35">
+        <v>14</v>
+      </c>
+      <c r="S35">
+        <v>10</v>
+      </c>
+      <c r="T35">
+        <v>10</v>
+      </c>
+      <c r="U35">
+        <v>14</v>
+      </c>
+      <c r="V35">
+        <v>6</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>2</v>
+      </c>
+      <c r="AA35">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>95</v>
       </c>
@@ -2378,8 +3322,68 @@
       <c r="E36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>28</v>
+      </c>
+      <c r="G36">
+        <v>20</v>
+      </c>
+      <c r="H36">
+        <v>12</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>-3</v>
+      </c>
+      <c r="K36">
+        <v>-9</v>
+      </c>
+      <c r="L36">
+        <v>51</v>
+      </c>
+      <c r="M36">
+        <v>21</v>
+      </c>
+      <c r="N36">
+        <v>4</v>
+      </c>
+      <c r="O36">
+        <v>1016</v>
+      </c>
+      <c r="P36">
+        <v>1013</v>
+      </c>
+      <c r="Q36">
+        <v>1002</v>
+      </c>
+      <c r="R36">
+        <v>14</v>
+      </c>
+      <c r="S36">
+        <v>10</v>
+      </c>
+      <c r="T36">
+        <v>10</v>
+      </c>
+      <c r="U36">
+        <v>23</v>
+      </c>
+      <c r="V36">
+        <v>5</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>7</v>
+      </c>
+      <c r="AA36">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>95</v>
       </c>
@@ -2395,8 +3399,68 @@
       <c r="E37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>29</v>
+      </c>
+      <c r="G37">
+        <v>19</v>
+      </c>
+      <c r="H37">
+        <v>9</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>-7</v>
+      </c>
+      <c r="L37">
+        <v>58</v>
+      </c>
+      <c r="M37">
+        <v>27</v>
+      </c>
+      <c r="N37">
+        <v>6</v>
+      </c>
+      <c r="O37">
+        <v>1018</v>
+      </c>
+      <c r="P37">
+        <v>1015</v>
+      </c>
+      <c r="Q37">
+        <v>1004</v>
+      </c>
+      <c r="R37">
+        <v>14</v>
+      </c>
+      <c r="S37">
+        <v>10</v>
+      </c>
+      <c r="T37">
+        <v>10</v>
+      </c>
+      <c r="U37">
+        <v>26</v>
+      </c>
+      <c r="V37">
+        <v>6</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>2</v>
+      </c>
+      <c r="AA37">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>95</v>
       </c>
@@ -2412,8 +3476,68 @@
       <c r="E38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>29</v>
+      </c>
+      <c r="G38">
+        <v>21</v>
+      </c>
+      <c r="H38">
+        <v>13</v>
+      </c>
+      <c r="I38">
+        <v>6</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>-5</v>
+      </c>
+      <c r="L38">
+        <v>54</v>
+      </c>
+      <c r="M38">
+        <v>25</v>
+      </c>
+      <c r="N38">
+        <v>6</v>
+      </c>
+      <c r="O38">
+        <v>1021</v>
+      </c>
+      <c r="P38">
+        <v>1018</v>
+      </c>
+      <c r="Q38">
+        <v>1007</v>
+      </c>
+      <c r="R38">
+        <v>14</v>
+      </c>
+      <c r="S38">
+        <v>10</v>
+      </c>
+      <c r="T38">
+        <v>10</v>
+      </c>
+      <c r="U38">
+        <v>19</v>
+      </c>
+      <c r="V38">
+        <v>6</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>2</v>
+      </c>
+      <c r="AA38">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>95</v>
       </c>
@@ -2429,8 +3553,68 @@
       <c r="E39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <v>32</v>
+      </c>
+      <c r="G39">
+        <v>22</v>
+      </c>
+      <c r="H39">
+        <v>13</v>
+      </c>
+      <c r="I39">
+        <v>6</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>-4</v>
+      </c>
+      <c r="L39">
+        <v>48</v>
+      </c>
+      <c r="M39">
+        <v>23</v>
+      </c>
+      <c r="N39">
+        <v>6</v>
+      </c>
+      <c r="O39">
+        <v>1022</v>
+      </c>
+      <c r="P39">
+        <v>1019</v>
+      </c>
+      <c r="Q39">
+        <v>1007</v>
+      </c>
+      <c r="R39">
+        <v>11</v>
+      </c>
+      <c r="S39">
+        <v>10</v>
+      </c>
+      <c r="T39">
+        <v>10</v>
+      </c>
+      <c r="U39">
+        <v>23</v>
+      </c>
+      <c r="V39">
+        <v>5</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>3</v>
+      </c>
+      <c r="AA39">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>95</v>
       </c>
@@ -2446,8 +3630,68 @@
       <c r="E40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <v>32</v>
+      </c>
+      <c r="G40">
+        <v>22</v>
+      </c>
+      <c r="H40">
+        <v>13</v>
+      </c>
+      <c r="I40">
+        <v>6</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>-6</v>
+      </c>
+      <c r="L40">
+        <v>47</v>
+      </c>
+      <c r="M40">
+        <v>23</v>
+      </c>
+      <c r="N40">
+        <v>5</v>
+      </c>
+      <c r="O40">
+        <v>1021</v>
+      </c>
+      <c r="P40">
+        <v>1017</v>
+      </c>
+      <c r="Q40">
+        <v>1005</v>
+      </c>
+      <c r="R40">
+        <v>11</v>
+      </c>
+      <c r="S40">
+        <v>10</v>
+      </c>
+      <c r="T40">
+        <v>10</v>
+      </c>
+      <c r="U40">
+        <v>19</v>
+      </c>
+      <c r="V40">
+        <v>5</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>3</v>
+      </c>
+      <c r="AA40">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>95</v>
       </c>
@@ -2463,8 +3707,68 @@
       <c r="E41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <v>30</v>
+      </c>
+      <c r="G41">
+        <v>22</v>
+      </c>
+      <c r="H41">
+        <v>15</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <v>-1</v>
+      </c>
+      <c r="K41">
+        <v>-9</v>
+      </c>
+      <c r="L41">
+        <v>48</v>
+      </c>
+      <c r="M41">
+        <v>23</v>
+      </c>
+      <c r="N41">
+        <v>4</v>
+      </c>
+      <c r="O41">
+        <v>1019</v>
+      </c>
+      <c r="P41">
+        <v>1016</v>
+      </c>
+      <c r="Q41">
+        <v>1004</v>
+      </c>
+      <c r="R41">
+        <v>11</v>
+      </c>
+      <c r="S41">
+        <v>10</v>
+      </c>
+      <c r="T41">
+        <v>10</v>
+      </c>
+      <c r="U41">
+        <v>23</v>
+      </c>
+      <c r="V41">
+        <v>5</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>3</v>
+      </c>
+      <c r="AA41">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>95</v>
       </c>
@@ -2480,8 +3784,74 @@
       <c r="E42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <v>28</v>
+      </c>
+      <c r="G42">
+        <v>22</v>
+      </c>
+      <c r="H42">
+        <v>16</v>
+      </c>
+      <c r="I42">
+        <v>11</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>-5</v>
+      </c>
+      <c r="L42">
+        <v>68</v>
+      </c>
+      <c r="M42">
+        <v>27</v>
+      </c>
+      <c r="N42">
+        <v>7</v>
+      </c>
+      <c r="O42">
+        <v>1018</v>
+      </c>
+      <c r="P42">
+        <v>1016</v>
+      </c>
+      <c r="Q42">
+        <v>1005</v>
+      </c>
+      <c r="R42">
+        <v>10</v>
+      </c>
+      <c r="S42">
+        <v>7</v>
+      </c>
+      <c r="T42">
+        <v>4</v>
+      </c>
+      <c r="U42">
+        <v>29</v>
+      </c>
+      <c r="V42">
+        <v>6</v>
+      </c>
+      <c r="W42">
+        <v>50</v>
+      </c>
+      <c r="X42">
+        <v>0.25</v>
+      </c>
+      <c r="Y42">
+        <v>6</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>95</v>
       </c>
@@ -2497,8 +3867,74 @@
       <c r="E43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <v>27</v>
+      </c>
+      <c r="G43">
+        <v>20</v>
+      </c>
+      <c r="H43">
+        <v>13</v>
+      </c>
+      <c r="I43">
+        <v>12</v>
+      </c>
+      <c r="J43">
+        <v>8</v>
+      </c>
+      <c r="K43">
+        <v>4</v>
+      </c>
+      <c r="L43">
+        <v>83</v>
+      </c>
+      <c r="M43">
+        <v>48</v>
+      </c>
+      <c r="N43">
+        <v>20</v>
+      </c>
+      <c r="O43">
+        <v>1018</v>
+      </c>
+      <c r="P43">
+        <v>1015</v>
+      </c>
+      <c r="Q43">
+        <v>1004</v>
+      </c>
+      <c r="R43">
+        <v>10</v>
+      </c>
+      <c r="S43">
+        <v>9</v>
+      </c>
+      <c r="T43">
+        <v>6</v>
+      </c>
+      <c r="U43">
+        <v>34</v>
+      </c>
+      <c r="V43">
+        <v>6</v>
+      </c>
+      <c r="W43">
+        <v>39</v>
+      </c>
+      <c r="X43">
+        <v>0.25</v>
+      </c>
+      <c r="Y43">
+        <v>4</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>95</v>
       </c>
@@ -2514,8 +3950,68 @@
       <c r="E44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <v>31</v>
+      </c>
+      <c r="G44">
+        <v>23</v>
+      </c>
+      <c r="H44">
+        <v>16</v>
+      </c>
+      <c r="I44">
+        <v>7</v>
+      </c>
+      <c r="J44">
+        <v>4</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>55</v>
+      </c>
+      <c r="M44">
+        <v>30</v>
+      </c>
+      <c r="N44">
+        <v>9</v>
+      </c>
+      <c r="O44">
+        <v>1017</v>
+      </c>
+      <c r="P44">
+        <v>1015</v>
+      </c>
+      <c r="Q44">
+        <v>1003</v>
+      </c>
+      <c r="R44">
+        <v>10</v>
+      </c>
+      <c r="S44">
+        <v>10</v>
+      </c>
+      <c r="T44">
+        <v>10</v>
+      </c>
+      <c r="U44">
+        <v>23</v>
+      </c>
+      <c r="V44">
+        <v>6</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>1</v>
+      </c>
+      <c r="AA44">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>95</v>
       </c>
@@ -2531,8 +4027,68 @@
       <c r="E45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <v>30</v>
+      </c>
+      <c r="G45">
+        <v>21</v>
+      </c>
+      <c r="H45">
+        <v>13</v>
+      </c>
+      <c r="I45">
+        <v>6</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>-7</v>
+      </c>
+      <c r="L45">
+        <v>54</v>
+      </c>
+      <c r="M45">
+        <v>25</v>
+      </c>
+      <c r="N45">
+        <v>6</v>
+      </c>
+      <c r="O45">
+        <v>1018</v>
+      </c>
+      <c r="P45">
+        <v>1015</v>
+      </c>
+      <c r="Q45">
+        <v>1005</v>
+      </c>
+      <c r="R45">
+        <v>10</v>
+      </c>
+      <c r="S45">
+        <v>9</v>
+      </c>
+      <c r="T45">
+        <v>6</v>
+      </c>
+      <c r="U45">
+        <v>29</v>
+      </c>
+      <c r="V45">
+        <v>8</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>2</v>
+      </c>
+      <c r="AA45">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>95</v>
       </c>
@@ -2548,8 +4104,65 @@
       <c r="E46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <v>31</v>
+      </c>
+      <c r="G46">
+        <v>22</v>
+      </c>
+      <c r="H46">
+        <v>13</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>-4</v>
+      </c>
+      <c r="L46">
+        <v>48</v>
+      </c>
+      <c r="M46">
+        <v>23</v>
+      </c>
+      <c r="N46">
+        <v>5</v>
+      </c>
+      <c r="O46">
+        <v>1017</v>
+      </c>
+      <c r="P46">
+        <v>1014</v>
+      </c>
+      <c r="Q46">
+        <v>1002</v>
+      </c>
+      <c r="R46">
+        <v>10</v>
+      </c>
+      <c r="S46">
+        <v>8</v>
+      </c>
+      <c r="T46">
+        <v>8</v>
+      </c>
+      <c r="U46">
+        <v>14</v>
+      </c>
+      <c r="V46">
+        <v>8</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>95</v>
       </c>
@@ -2565,8 +4178,68 @@
       <c r="E47">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <v>33</v>
+      </c>
+      <c r="G47">
+        <v>24</v>
+      </c>
+      <c r="H47">
+        <v>15</v>
+      </c>
+      <c r="I47">
+        <v>7</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>-13</v>
+      </c>
+      <c r="L47">
+        <v>52</v>
+      </c>
+      <c r="M47">
+        <v>22</v>
+      </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
+      <c r="O47">
+        <v>1019</v>
+      </c>
+      <c r="P47">
+        <v>1016</v>
+      </c>
+      <c r="Q47">
+        <v>1004</v>
+      </c>
+      <c r="R47">
+        <v>10</v>
+      </c>
+      <c r="S47">
+        <v>9</v>
+      </c>
+      <c r="T47">
+        <v>7</v>
+      </c>
+      <c r="U47">
+        <v>29</v>
+      </c>
+      <c r="V47">
+        <v>6</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>1</v>
+      </c>
+      <c r="AA47">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>95</v>
       </c>
@@ -2582,8 +4255,68 @@
       <c r="E48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <v>33</v>
+      </c>
+      <c r="G48">
+        <v>24</v>
+      </c>
+      <c r="H48">
+        <v>16</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>-5</v>
+      </c>
+      <c r="L48">
+        <v>39</v>
+      </c>
+      <c r="M48">
+        <v>19</v>
+      </c>
+      <c r="N48">
+        <v>4</v>
+      </c>
+      <c r="O48">
+        <v>1020</v>
+      </c>
+      <c r="P48">
+        <v>1017</v>
+      </c>
+      <c r="Q48">
+        <v>1005</v>
+      </c>
+      <c r="R48">
+        <v>10</v>
+      </c>
+      <c r="S48">
+        <v>8</v>
+      </c>
+      <c r="T48">
+        <v>6</v>
+      </c>
+      <c r="U48">
+        <v>23</v>
+      </c>
+      <c r="V48">
+        <v>8</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>5</v>
+      </c>
+      <c r="AA48">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>95</v>
       </c>
@@ -2599,8 +4332,68 @@
       <c r="E49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <v>33</v>
+      </c>
+      <c r="G49">
+        <v>24</v>
+      </c>
+      <c r="H49">
+        <v>17</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>-2</v>
+      </c>
+      <c r="L49">
+        <v>42</v>
+      </c>
+      <c r="M49">
+        <v>22</v>
+      </c>
+      <c r="N49">
+        <v>6</v>
+      </c>
+      <c r="O49">
+        <v>1020</v>
+      </c>
+      <c r="P49">
+        <v>1017</v>
+      </c>
+      <c r="Q49">
+        <v>1005</v>
+      </c>
+      <c r="R49">
+        <v>10</v>
+      </c>
+      <c r="S49">
+        <v>8</v>
+      </c>
+      <c r="T49">
+        <v>6</v>
+      </c>
+      <c r="U49">
+        <v>26</v>
+      </c>
+      <c r="V49">
+        <v>8</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>3</v>
+      </c>
+      <c r="AA49">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>95</v>
       </c>
@@ -2616,8 +4409,68 @@
       <c r="E50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <v>33</v>
+      </c>
+      <c r="G50">
+        <v>24</v>
+      </c>
+      <c r="H50">
+        <v>16</v>
+      </c>
+      <c r="I50">
+        <v>8</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+      <c r="K50">
+        <v>-3</v>
+      </c>
+      <c r="L50">
+        <v>52</v>
+      </c>
+      <c r="M50">
+        <v>24</v>
+      </c>
+      <c r="N50">
+        <v>4</v>
+      </c>
+      <c r="O50">
+        <v>1020</v>
+      </c>
+      <c r="P50">
+        <v>1018</v>
+      </c>
+      <c r="Q50">
+        <v>1005</v>
+      </c>
+      <c r="R50">
+        <v>10</v>
+      </c>
+      <c r="S50">
+        <v>7</v>
+      </c>
+      <c r="T50">
+        <v>5</v>
+      </c>
+      <c r="U50">
+        <v>14</v>
+      </c>
+      <c r="V50">
+        <v>5</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>6</v>
+      </c>
+      <c r="AA50">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>95</v>
       </c>
@@ -2633,8 +4486,71 @@
       <c r="E51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <v>31</v>
+      </c>
+      <c r="G51">
+        <v>23</v>
+      </c>
+      <c r="H51">
+        <v>16</v>
+      </c>
+      <c r="I51">
+        <v>13</v>
+      </c>
+      <c r="J51">
+        <v>7</v>
+      </c>
+      <c r="K51">
+        <v>4</v>
+      </c>
+      <c r="L51">
+        <v>57</v>
+      </c>
+      <c r="M51">
+        <v>36</v>
+      </c>
+      <c r="N51">
+        <v>13</v>
+      </c>
+      <c r="O51">
+        <v>1019</v>
+      </c>
+      <c r="P51">
+        <v>1017</v>
+      </c>
+      <c r="Q51">
+        <v>1004</v>
+      </c>
+      <c r="R51">
+        <v>10</v>
+      </c>
+      <c r="S51">
+        <v>7</v>
+      </c>
+      <c r="T51">
+        <v>4</v>
+      </c>
+      <c r="U51">
+        <v>26</v>
+      </c>
+      <c r="V51">
+        <v>5</v>
+      </c>
+      <c r="X51">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="Y51">
+        <v>6</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA51">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>95</v>
       </c>
@@ -2650,8 +4566,71 @@
       <c r="E52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <v>28</v>
+      </c>
+      <c r="G52">
+        <v>22</v>
+      </c>
+      <c r="H52">
+        <v>17</v>
+      </c>
+      <c r="I52">
+        <v>12</v>
+      </c>
+      <c r="J52">
+        <v>8</v>
+      </c>
+      <c r="K52">
+        <v>4</v>
+      </c>
+      <c r="L52">
+        <v>72</v>
+      </c>
+      <c r="M52">
+        <v>42</v>
+      </c>
+      <c r="N52">
+        <v>14</v>
+      </c>
+      <c r="O52">
+        <v>1018</v>
+      </c>
+      <c r="P52">
+        <v>1016</v>
+      </c>
+      <c r="Q52">
+        <v>1004</v>
+      </c>
+      <c r="R52">
+        <v>14</v>
+      </c>
+      <c r="S52">
+        <v>9</v>
+      </c>
+      <c r="T52">
+        <v>6</v>
+      </c>
+      <c r="U52">
+        <v>34</v>
+      </c>
+      <c r="V52">
+        <v>6</v>
+      </c>
+      <c r="X52">
+        <v>1.02</v>
+      </c>
+      <c r="Y52">
+        <v>6</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA52">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>95</v>
       </c>
@@ -2667,8 +4646,68 @@
       <c r="E53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <v>29</v>
+      </c>
+      <c r="G53">
+        <v>22</v>
+      </c>
+      <c r="H53">
+        <v>15</v>
+      </c>
+      <c r="I53">
+        <v>11</v>
+      </c>
+      <c r="J53">
+        <v>4</v>
+      </c>
+      <c r="K53">
+        <v>-3</v>
+      </c>
+      <c r="L53">
+        <v>72</v>
+      </c>
+      <c r="M53">
+        <v>35</v>
+      </c>
+      <c r="N53">
+        <v>8</v>
+      </c>
+      <c r="O53">
+        <v>1019</v>
+      </c>
+      <c r="P53">
+        <v>1017</v>
+      </c>
+      <c r="Q53">
+        <v>1006</v>
+      </c>
+      <c r="R53">
+        <v>10</v>
+      </c>
+      <c r="S53">
+        <v>9</v>
+      </c>
+      <c r="T53">
+        <v>6</v>
+      </c>
+      <c r="U53">
+        <v>26</v>
+      </c>
+      <c r="V53">
+        <v>8</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>2</v>
+      </c>
+      <c r="AA53">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>95</v>
       </c>
@@ -2684,8 +4723,71 @@
       <c r="E54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <v>31</v>
+      </c>
+      <c r="G54">
+        <v>23</v>
+      </c>
+      <c r="H54">
+        <v>14</v>
+      </c>
+      <c r="I54">
+        <v>9</v>
+      </c>
+      <c r="J54">
+        <v>4</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>59</v>
+      </c>
+      <c r="M54">
+        <v>29</v>
+      </c>
+      <c r="N54">
+        <v>9</v>
+      </c>
+      <c r="O54">
+        <v>1019</v>
+      </c>
+      <c r="P54">
+        <v>1017</v>
+      </c>
+      <c r="Q54">
+        <v>1005</v>
+      </c>
+      <c r="R54">
+        <v>10</v>
+      </c>
+      <c r="S54">
+        <v>9</v>
+      </c>
+      <c r="T54">
+        <v>6</v>
+      </c>
+      <c r="U54">
+        <v>40</v>
+      </c>
+      <c r="V54">
+        <v>10</v>
+      </c>
+      <c r="W54">
+        <v>52</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>2</v>
+      </c>
+      <c r="AA54">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>95</v>
       </c>
@@ -2701,8 +4803,71 @@
       <c r="E55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55">
+        <v>31</v>
+      </c>
+      <c r="G55">
+        <v>23</v>
+      </c>
+      <c r="H55">
+        <v>16</v>
+      </c>
+      <c r="I55">
+        <v>8</v>
+      </c>
+      <c r="J55">
+        <v>3</v>
+      </c>
+      <c r="K55">
+        <v>-5</v>
+      </c>
+      <c r="L55">
+        <v>55</v>
+      </c>
+      <c r="M55">
+        <v>27</v>
+      </c>
+      <c r="N55">
+        <v>6</v>
+      </c>
+      <c r="O55">
+        <v>1018</v>
+      </c>
+      <c r="P55">
+        <v>1015</v>
+      </c>
+      <c r="Q55">
+        <v>1003</v>
+      </c>
+      <c r="R55">
+        <v>10</v>
+      </c>
+      <c r="S55">
+        <v>7</v>
+      </c>
+      <c r="T55">
+        <v>5</v>
+      </c>
+      <c r="U55">
+        <v>37</v>
+      </c>
+      <c r="V55">
+        <v>8</v>
+      </c>
+      <c r="W55">
+        <v>61</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>2</v>
+      </c>
+      <c r="AA55">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>95</v>
       </c>
@@ -2718,8 +4883,65 @@
       <c r="E56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <v>33</v>
+      </c>
+      <c r="G56">
+        <v>24</v>
+      </c>
+      <c r="H56">
+        <v>15</v>
+      </c>
+      <c r="I56">
+        <v>6</v>
+      </c>
+      <c r="J56">
+        <v>-3</v>
+      </c>
+      <c r="K56">
+        <v>-13</v>
+      </c>
+      <c r="L56">
+        <v>52</v>
+      </c>
+      <c r="M56">
+        <v>18</v>
+      </c>
+      <c r="N56">
+        <v>4</v>
+      </c>
+      <c r="O56">
+        <v>1019</v>
+      </c>
+      <c r="P56">
+        <v>1016</v>
+      </c>
+      <c r="Q56">
+        <v>1003</v>
+      </c>
+      <c r="R56">
+        <v>11</v>
+      </c>
+      <c r="S56">
+        <v>10</v>
+      </c>
+      <c r="T56">
+        <v>10</v>
+      </c>
+      <c r="U56">
+        <v>23</v>
+      </c>
+      <c r="V56">
+        <v>6</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>95</v>
       </c>
@@ -2735,8 +4957,65 @@
       <c r="E57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <v>34</v>
+      </c>
+      <c r="G57">
+        <v>24</v>
+      </c>
+      <c r="H57">
+        <v>15</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <v>-2</v>
+      </c>
+      <c r="K57">
+        <v>-14</v>
+      </c>
+      <c r="L57">
+        <v>39</v>
+      </c>
+      <c r="M57">
+        <v>18</v>
+      </c>
+      <c r="N57">
+        <v>4</v>
+      </c>
+      <c r="O57">
+        <v>1019</v>
+      </c>
+      <c r="P57">
+        <v>1016</v>
+      </c>
+      <c r="Q57">
+        <v>1004</v>
+      </c>
+      <c r="R57">
+        <v>14</v>
+      </c>
+      <c r="S57">
+        <v>11</v>
+      </c>
+      <c r="T57">
+        <v>10</v>
+      </c>
+      <c r="U57">
+        <v>14</v>
+      </c>
+      <c r="V57">
+        <v>5</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>95</v>
       </c>
@@ -2752,8 +5031,65 @@
       <c r="E58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <v>36</v>
+      </c>
+      <c r="G58">
+        <v>26</v>
+      </c>
+      <c r="H58">
+        <v>15</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>-5</v>
+      </c>
+      <c r="L58">
+        <v>48</v>
+      </c>
+      <c r="M58">
+        <v>19</v>
+      </c>
+      <c r="N58">
+        <v>4</v>
+      </c>
+      <c r="O58">
+        <v>1019</v>
+      </c>
+      <c r="P58">
+        <v>1016</v>
+      </c>
+      <c r="Q58">
+        <v>1002</v>
+      </c>
+      <c r="R58">
+        <v>11</v>
+      </c>
+      <c r="S58">
+        <v>11</v>
+      </c>
+      <c r="T58">
+        <v>10</v>
+      </c>
+      <c r="U58">
+        <v>19</v>
+      </c>
+      <c r="V58">
+        <v>6</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>95</v>
       </c>
@@ -2769,8 +5105,68 @@
       <c r="E59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <v>37</v>
+      </c>
+      <c r="G59">
+        <v>27</v>
+      </c>
+      <c r="H59">
+        <v>16</v>
+      </c>
+      <c r="I59">
+        <v>6</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>-5</v>
+      </c>
+      <c r="L59">
+        <v>42</v>
+      </c>
+      <c r="M59">
+        <v>17</v>
+      </c>
+      <c r="N59">
+        <v>4</v>
+      </c>
+      <c r="O59">
+        <v>1018</v>
+      </c>
+      <c r="P59">
+        <v>1015</v>
+      </c>
+      <c r="Q59">
+        <v>1001</v>
+      </c>
+      <c r="R59">
+        <v>11</v>
+      </c>
+      <c r="S59">
+        <v>10</v>
+      </c>
+      <c r="T59">
+        <v>10</v>
+      </c>
+      <c r="U59">
+        <v>19</v>
+      </c>
+      <c r="V59">
+        <v>6</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>1</v>
+      </c>
+      <c r="AA59">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>95</v>
       </c>
@@ -2786,8 +5182,71 @@
       <c r="E60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <v>37</v>
+      </c>
+      <c r="G60">
+        <v>28</v>
+      </c>
+      <c r="H60">
+        <v>18</v>
+      </c>
+      <c r="I60">
+        <v>6</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+      <c r="K60">
+        <v>-2</v>
+      </c>
+      <c r="L60">
+        <v>35</v>
+      </c>
+      <c r="M60">
+        <v>20</v>
+      </c>
+      <c r="N60">
+        <v>5</v>
+      </c>
+      <c r="O60">
+        <v>1018</v>
+      </c>
+      <c r="P60">
+        <v>1015</v>
+      </c>
+      <c r="Q60">
+        <v>1001</v>
+      </c>
+      <c r="R60">
+        <v>14</v>
+      </c>
+      <c r="S60">
+        <v>9</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60">
+        <v>37</v>
+      </c>
+      <c r="V60">
+        <v>8</v>
+      </c>
+      <c r="W60">
+        <v>40</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>5</v>
+      </c>
+      <c r="AA60">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>95</v>
       </c>
@@ -2803,8 +5262,68 @@
       <c r="E61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <v>36</v>
+      </c>
+      <c r="G61">
+        <v>27</v>
+      </c>
+      <c r="H61">
+        <v>18</v>
+      </c>
+      <c r="I61">
+        <v>9</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="K61">
+        <v>-6</v>
+      </c>
+      <c r="L61">
+        <v>42</v>
+      </c>
+      <c r="M61">
+        <v>21</v>
+      </c>
+      <c r="N61">
+        <v>4</v>
+      </c>
+      <c r="O61">
+        <v>1018</v>
+      </c>
+      <c r="P61">
+        <v>1014</v>
+      </c>
+      <c r="Q61">
+        <v>1000</v>
+      </c>
+      <c r="R61">
+        <v>11</v>
+      </c>
+      <c r="S61">
+        <v>10</v>
+      </c>
+      <c r="T61">
+        <v>10</v>
+      </c>
+      <c r="U61">
+        <v>23</v>
+      </c>
+      <c r="V61">
+        <v>6</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>3</v>
+      </c>
+      <c r="AA61">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>95</v>
       </c>
@@ -2820,8 +5339,68 @@
       <c r="E62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <v>36</v>
+      </c>
+      <c r="G62">
+        <v>29</v>
+      </c>
+      <c r="H62">
+        <v>21</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+      <c r="J62">
+        <v>-1</v>
+      </c>
+      <c r="K62">
+        <v>-8</v>
+      </c>
+      <c r="L62">
+        <v>33</v>
+      </c>
+      <c r="M62">
+        <v>16</v>
+      </c>
+      <c r="N62">
+        <v>4</v>
+      </c>
+      <c r="O62">
+        <v>1016</v>
+      </c>
+      <c r="P62">
+        <v>1013</v>
+      </c>
+      <c r="Q62">
+        <v>998</v>
+      </c>
+      <c r="R62">
+        <v>10</v>
+      </c>
+      <c r="S62">
+        <v>10</v>
+      </c>
+      <c r="T62">
+        <v>10</v>
+      </c>
+      <c r="U62">
+        <v>26</v>
+      </c>
+      <c r="V62">
+        <v>8</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>2</v>
+      </c>
+      <c r="AA62">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>95</v>
       </c>
@@ -2837,8 +5416,71 @@
       <c r="E63">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <v>33</v>
+      </c>
+      <c r="G63">
+        <v>26</v>
+      </c>
+      <c r="H63">
+        <v>17</v>
+      </c>
+      <c r="I63">
+        <v>7</v>
+      </c>
+      <c r="J63">
+        <v>-5</v>
+      </c>
+      <c r="K63">
+        <v>-15</v>
+      </c>
+      <c r="L63">
+        <v>46</v>
+      </c>
+      <c r="M63">
+        <v>15</v>
+      </c>
+      <c r="N63">
+        <v>4</v>
+      </c>
+      <c r="O63">
+        <v>1015</v>
+      </c>
+      <c r="P63">
+        <v>1012</v>
+      </c>
+      <c r="Q63">
+        <v>999</v>
+      </c>
+      <c r="R63">
+        <v>10</v>
+      </c>
+      <c r="S63">
+        <v>8</v>
+      </c>
+      <c r="T63">
+        <v>6</v>
+      </c>
+      <c r="U63">
+        <v>26</v>
+      </c>
+      <c r="V63">
+        <v>8</v>
+      </c>
+      <c r="W63">
+        <v>42</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>1</v>
+      </c>
+      <c r="AA63">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>95</v>
       </c>
@@ -2854,8 +5496,65 @@
       <c r="E64">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <v>34</v>
+      </c>
+      <c r="G64">
+        <v>23</v>
+      </c>
+      <c r="H64">
+        <v>12</v>
+      </c>
+      <c r="I64">
+        <v>-1</v>
+      </c>
+      <c r="J64">
+        <v>-8</v>
+      </c>
+      <c r="K64">
+        <v>-14</v>
+      </c>
+      <c r="L64">
+        <v>41</v>
+      </c>
+      <c r="M64">
+        <v>10</v>
+      </c>
+      <c r="N64">
+        <v>4</v>
+      </c>
+      <c r="O64">
+        <v>1016</v>
+      </c>
+      <c r="P64">
+        <v>1013</v>
+      </c>
+      <c r="Q64">
+        <v>1001</v>
+      </c>
+      <c r="R64">
+        <v>14</v>
+      </c>
+      <c r="S64">
+        <v>8</v>
+      </c>
+      <c r="T64">
+        <v>6</v>
+      </c>
+      <c r="U64">
+        <v>23</v>
+      </c>
+      <c r="V64">
+        <v>8</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>95</v>
       </c>
@@ -2871,8 +5570,68 @@
       <c r="E65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <v>35</v>
+      </c>
+      <c r="G65">
+        <v>25</v>
+      </c>
+      <c r="H65">
+        <v>15</v>
+      </c>
+      <c r="I65">
+        <v>-2</v>
+      </c>
+      <c r="J65">
+        <v>-8</v>
+      </c>
+      <c r="K65">
+        <v>-14</v>
+      </c>
+      <c r="L65">
+        <v>27</v>
+      </c>
+      <c r="M65">
+        <v>10</v>
+      </c>
+      <c r="N65">
+        <v>4</v>
+      </c>
+      <c r="O65">
+        <v>1016</v>
+      </c>
+      <c r="P65">
+        <v>1013</v>
+      </c>
+      <c r="Q65">
+        <v>1001</v>
+      </c>
+      <c r="R65">
+        <v>11</v>
+      </c>
+      <c r="S65">
+        <v>11</v>
+      </c>
+      <c r="T65">
+        <v>10</v>
+      </c>
+      <c r="U65">
+        <v>29</v>
+      </c>
+      <c r="V65">
+        <v>10</v>
+      </c>
+      <c r="W65">
+        <v>50</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>95</v>
       </c>
@@ -2888,8 +5647,65 @@
       <c r="E66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66">
+        <v>34</v>
+      </c>
+      <c r="G66">
+        <v>25</v>
+      </c>
+      <c r="H66">
+        <v>16</v>
+      </c>
+      <c r="I66">
+        <v>-1</v>
+      </c>
+      <c r="J66">
+        <v>-5</v>
+      </c>
+      <c r="K66">
+        <v>-9</v>
+      </c>
+      <c r="L66">
+        <v>31</v>
+      </c>
+      <c r="M66">
+        <v>12</v>
+      </c>
+      <c r="N66">
+        <v>4</v>
+      </c>
+      <c r="O66">
+        <v>1016</v>
+      </c>
+      <c r="P66">
+        <v>1013</v>
+      </c>
+      <c r="Q66">
+        <v>1000</v>
+      </c>
+      <c r="R66">
+        <v>14</v>
+      </c>
+      <c r="S66">
+        <v>11</v>
+      </c>
+      <c r="T66">
+        <v>10</v>
+      </c>
+      <c r="U66">
+        <v>23</v>
+      </c>
+      <c r="V66">
+        <v>10</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>95</v>
       </c>
@@ -2905,8 +5721,68 @@
       <c r="E67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67">
+        <v>32</v>
+      </c>
+      <c r="G67">
+        <v>24</v>
+      </c>
+      <c r="H67">
+        <v>16</v>
+      </c>
+      <c r="I67">
+        <v>4</v>
+      </c>
+      <c r="J67">
+        <v>-8</v>
+      </c>
+      <c r="K67">
+        <v>-26</v>
+      </c>
+      <c r="L67">
+        <v>42</v>
+      </c>
+      <c r="M67">
+        <v>14</v>
+      </c>
+      <c r="N67">
+        <v>4</v>
+      </c>
+      <c r="O67">
+        <v>1015</v>
+      </c>
+      <c r="P67">
+        <v>1012</v>
+      </c>
+      <c r="Q67">
+        <v>1000</v>
+      </c>
+      <c r="R67">
+        <v>11</v>
+      </c>
+      <c r="S67">
+        <v>9</v>
+      </c>
+      <c r="T67">
+        <v>5</v>
+      </c>
+      <c r="U67">
+        <v>45</v>
+      </c>
+      <c r="V67">
+        <v>11</v>
+      </c>
+      <c r="W67">
+        <v>64</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>95</v>
       </c>
@@ -2922,8 +5798,65 @@
       <c r="E68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68">
+        <v>34</v>
+      </c>
+      <c r="G68">
+        <v>21</v>
+      </c>
+      <c r="H68">
+        <v>8</v>
+      </c>
+      <c r="I68">
+        <v>-3</v>
+      </c>
+      <c r="J68">
+        <v>-12</v>
+      </c>
+      <c r="K68">
+        <v>-31</v>
+      </c>
+      <c r="L68">
+        <v>33</v>
+      </c>
+      <c r="M68">
+        <v>12</v>
+      </c>
+      <c r="N68">
+        <v>4</v>
+      </c>
+      <c r="O68">
+        <v>1014</v>
+      </c>
+      <c r="P68">
+        <v>1011</v>
+      </c>
+      <c r="Q68">
+        <v>1001</v>
+      </c>
+      <c r="R68">
+        <v>14</v>
+      </c>
+      <c r="S68">
+        <v>13</v>
+      </c>
+      <c r="T68">
+        <v>10</v>
+      </c>
+      <c r="U68">
+        <v>23</v>
+      </c>
+      <c r="V68">
+        <v>6</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>95</v>
       </c>
@@ -2939,8 +5872,65 @@
       <c r="E69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69">
+        <v>34</v>
+      </c>
+      <c r="G69">
+        <v>23</v>
+      </c>
+      <c r="H69">
+        <v>13</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>-9</v>
+      </c>
+      <c r="K69">
+        <v>-21</v>
+      </c>
+      <c r="L69">
+        <v>31</v>
+      </c>
+      <c r="M69">
+        <v>11</v>
+      </c>
+      <c r="N69">
+        <v>4</v>
+      </c>
+      <c r="O69">
+        <v>1017</v>
+      </c>
+      <c r="P69">
+        <v>1014</v>
+      </c>
+      <c r="Q69">
+        <v>1001</v>
+      </c>
+      <c r="R69">
+        <v>14</v>
+      </c>
+      <c r="S69">
+        <v>12</v>
+      </c>
+      <c r="T69">
+        <v>10</v>
+      </c>
+      <c r="U69">
+        <v>26</v>
+      </c>
+      <c r="V69">
+        <v>10</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>95</v>
       </c>
@@ -2956,8 +5946,65 @@
       <c r="E70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70">
+        <v>35</v>
+      </c>
+      <c r="G70">
+        <v>24</v>
+      </c>
+      <c r="H70">
+        <v>14</v>
+      </c>
+      <c r="I70">
+        <v>-1</v>
+      </c>
+      <c r="J70">
+        <v>-7</v>
+      </c>
+      <c r="K70">
+        <v>-12</v>
+      </c>
+      <c r="L70">
+        <v>28</v>
+      </c>
+      <c r="M70">
+        <v>11</v>
+      </c>
+      <c r="N70">
+        <v>4</v>
+      </c>
+      <c r="O70">
+        <v>1019</v>
+      </c>
+      <c r="P70">
+        <v>1015</v>
+      </c>
+      <c r="Q70">
+        <v>1003</v>
+      </c>
+      <c r="R70">
+        <v>14</v>
+      </c>
+      <c r="S70">
+        <v>6</v>
+      </c>
+      <c r="T70">
+        <v>5</v>
+      </c>
+      <c r="U70">
+        <v>23</v>
+      </c>
+      <c r="V70">
+        <v>8</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>95</v>
       </c>
@@ -2973,8 +6020,68 @@
       <c r="E71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71">
+        <v>35</v>
+      </c>
+      <c r="G71">
+        <v>26</v>
+      </c>
+      <c r="H71">
+        <v>16</v>
+      </c>
+      <c r="I71">
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <v>-6</v>
+      </c>
+      <c r="K71">
+        <v>-15</v>
+      </c>
+      <c r="L71">
+        <v>34</v>
+      </c>
+      <c r="M71">
+        <v>12</v>
+      </c>
+      <c r="N71">
+        <v>4</v>
+      </c>
+      <c r="O71">
+        <v>1018</v>
+      </c>
+      <c r="P71">
+        <v>1015</v>
+      </c>
+      <c r="Q71">
+        <v>1001</v>
+      </c>
+      <c r="R71">
+        <v>10</v>
+      </c>
+      <c r="S71">
+        <v>6</v>
+      </c>
+      <c r="T71">
+        <v>5</v>
+      </c>
+      <c r="U71">
+        <v>29</v>
+      </c>
+      <c r="V71">
+        <v>10</v>
+      </c>
+      <c r="W71">
+        <v>40</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>95</v>
       </c>
@@ -2990,8 +6097,65 @@
       <c r="E72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72">
+        <v>34</v>
+      </c>
+      <c r="G72">
+        <v>27</v>
+      </c>
+      <c r="H72">
+        <v>20</v>
+      </c>
+      <c r="I72">
+        <v>-5</v>
+      </c>
+      <c r="J72">
+        <v>-9</v>
+      </c>
+      <c r="K72">
+        <v>-18</v>
+      </c>
+      <c r="L72">
+        <v>17</v>
+      </c>
+      <c r="M72">
+        <v>8</v>
+      </c>
+      <c r="N72">
+        <v>4</v>
+      </c>
+      <c r="O72">
+        <v>1016</v>
+      </c>
+      <c r="P72">
+        <v>1014</v>
+      </c>
+      <c r="Q72">
+        <v>1001</v>
+      </c>
+      <c r="R72">
+        <v>14</v>
+      </c>
+      <c r="S72">
+        <v>13</v>
+      </c>
+      <c r="T72">
+        <v>10</v>
+      </c>
+      <c r="U72">
+        <v>23</v>
+      </c>
+      <c r="V72">
+        <v>10</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>95</v>
       </c>
@@ -3007,8 +6171,68 @@
       <c r="E73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73">
+        <v>32</v>
+      </c>
+      <c r="G73">
+        <v>26</v>
+      </c>
+      <c r="H73">
+        <v>19</v>
+      </c>
+      <c r="I73">
+        <v>4</v>
+      </c>
+      <c r="J73">
+        <v>-7</v>
+      </c>
+      <c r="K73">
+        <v>-20</v>
+      </c>
+      <c r="L73">
+        <v>31</v>
+      </c>
+      <c r="M73">
+        <v>12</v>
+      </c>
+      <c r="N73">
+        <v>4</v>
+      </c>
+      <c r="O73">
+        <v>1015</v>
+      </c>
+      <c r="P73">
+        <v>1013</v>
+      </c>
+      <c r="Q73">
+        <v>1000</v>
+      </c>
+      <c r="R73">
+        <v>14</v>
+      </c>
+      <c r="S73">
+        <v>13</v>
+      </c>
+      <c r="T73">
+        <v>10</v>
+      </c>
+      <c r="U73">
+        <v>29</v>
+      </c>
+      <c r="V73">
+        <v>11</v>
+      </c>
+      <c r="W73">
+        <v>42</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>95</v>
       </c>
@@ -3024,8 +6248,68 @@
       <c r="E74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74">
+        <v>32</v>
+      </c>
+      <c r="G74">
+        <v>24</v>
+      </c>
+      <c r="H74">
+        <v>18</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>-6</v>
+      </c>
+      <c r="K74">
+        <v>-14</v>
+      </c>
+      <c r="L74">
+        <v>25</v>
+      </c>
+      <c r="M74">
+        <v>14</v>
+      </c>
+      <c r="N74">
+        <v>4</v>
+      </c>
+      <c r="O74">
+        <v>1014</v>
+      </c>
+      <c r="P74">
+        <v>1012</v>
+      </c>
+      <c r="Q74">
+        <v>1000</v>
+      </c>
+      <c r="R74">
+        <v>14</v>
+      </c>
+      <c r="S74">
+        <v>12</v>
+      </c>
+      <c r="T74">
+        <v>10</v>
+      </c>
+      <c r="U74">
+        <v>26</v>
+      </c>
+      <c r="V74">
+        <v>13</v>
+      </c>
+      <c r="W74">
+        <v>40</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>95</v>
       </c>
@@ -3041,8 +6325,65 @@
       <c r="E75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75">
+        <v>33</v>
+      </c>
+      <c r="G75">
+        <v>26</v>
+      </c>
+      <c r="H75">
+        <v>19</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>-3</v>
+      </c>
+      <c r="K75">
+        <v>-8</v>
+      </c>
+      <c r="L75">
+        <v>28</v>
+      </c>
+      <c r="M75">
+        <v>16</v>
+      </c>
+      <c r="N75">
+        <v>4</v>
+      </c>
+      <c r="O75">
+        <v>1014</v>
+      </c>
+      <c r="P75">
+        <v>1011</v>
+      </c>
+      <c r="Q75">
+        <v>999</v>
+      </c>
+      <c r="R75">
+        <v>10</v>
+      </c>
+      <c r="S75">
+        <v>10</v>
+      </c>
+      <c r="T75">
+        <v>10</v>
+      </c>
+      <c r="U75">
+        <v>23</v>
+      </c>
+      <c r="V75">
+        <v>11</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>95</v>
       </c>
@@ -3058,8 +6399,65 @@
       <c r="E76">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76">
+        <v>33</v>
+      </c>
+      <c r="G76">
+        <v>24</v>
+      </c>
+      <c r="H76">
+        <v>16</v>
+      </c>
+      <c r="I76">
+        <v>3</v>
+      </c>
+      <c r="J76">
+        <v>-7</v>
+      </c>
+      <c r="K76">
+        <v>-18</v>
+      </c>
+      <c r="L76">
+        <v>37</v>
+      </c>
+      <c r="M76">
+        <v>13</v>
+      </c>
+      <c r="N76">
+        <v>4</v>
+      </c>
+      <c r="O76">
+        <v>1014</v>
+      </c>
+      <c r="P76">
+        <v>1012</v>
+      </c>
+      <c r="Q76">
+        <v>1000</v>
+      </c>
+      <c r="R76">
+        <v>11</v>
+      </c>
+      <c r="S76">
+        <v>10</v>
+      </c>
+      <c r="T76">
+        <v>10</v>
+      </c>
+      <c r="U76">
+        <v>23</v>
+      </c>
+      <c r="V76">
+        <v>10</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>95</v>
       </c>
@@ -3075,8 +6473,65 @@
       <c r="E77">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77">
+        <v>34</v>
+      </c>
+      <c r="G77">
+        <v>26</v>
+      </c>
+      <c r="H77">
+        <v>17</v>
+      </c>
+      <c r="I77">
+        <v>3</v>
+      </c>
+      <c r="J77">
+        <v>-3</v>
+      </c>
+      <c r="K77">
+        <v>-12</v>
+      </c>
+      <c r="L77">
+        <v>35</v>
+      </c>
+      <c r="M77">
+        <v>15</v>
+      </c>
+      <c r="N77">
+        <v>4</v>
+      </c>
+      <c r="O77">
+        <v>1017</v>
+      </c>
+      <c r="P77">
+        <v>1014</v>
+      </c>
+      <c r="Q77">
+        <v>1001</v>
+      </c>
+      <c r="R77">
+        <v>11</v>
+      </c>
+      <c r="S77">
+        <v>10</v>
+      </c>
+      <c r="T77">
+        <v>10</v>
+      </c>
+      <c r="U77">
+        <v>19</v>
+      </c>
+      <c r="V77">
+        <v>8</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>95</v>
       </c>
@@ -3092,8 +6547,65 @@
       <c r="E78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78">
+        <v>36</v>
+      </c>
+      <c r="G78">
+        <v>26</v>
+      </c>
+      <c r="H78">
+        <v>16</v>
+      </c>
+      <c r="I78">
+        <v>5</v>
+      </c>
+      <c r="J78">
+        <v>-5</v>
+      </c>
+      <c r="K78">
+        <v>-21</v>
+      </c>
+      <c r="L78">
+        <v>37</v>
+      </c>
+      <c r="M78">
+        <v>15</v>
+      </c>
+      <c r="N78">
+        <v>4</v>
+      </c>
+      <c r="O78">
+        <v>1019</v>
+      </c>
+      <c r="P78">
+        <v>1016</v>
+      </c>
+      <c r="Q78">
+        <v>1003</v>
+      </c>
+      <c r="R78">
+        <v>14</v>
+      </c>
+      <c r="S78">
+        <v>11</v>
+      </c>
+      <c r="T78">
+        <v>10</v>
+      </c>
+      <c r="U78">
+        <v>19</v>
+      </c>
+      <c r="V78">
+        <v>3</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>95</v>
       </c>
@@ -3109,8 +6621,68 @@
       <c r="E79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79">
+        <v>36</v>
+      </c>
+      <c r="G79">
+        <v>27</v>
+      </c>
+      <c r="H79">
+        <v>17</v>
+      </c>
+      <c r="I79">
+        <v>5</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>-6</v>
+      </c>
+      <c r="L79">
+        <v>42</v>
+      </c>
+      <c r="M79">
+        <v>18</v>
+      </c>
+      <c r="N79">
+        <v>4</v>
+      </c>
+      <c r="O79">
+        <v>1018</v>
+      </c>
+      <c r="P79">
+        <v>1016</v>
+      </c>
+      <c r="Q79">
+        <v>1002</v>
+      </c>
+      <c r="R79">
+        <v>14</v>
+      </c>
+      <c r="S79">
+        <v>10</v>
+      </c>
+      <c r="T79">
+        <v>10</v>
+      </c>
+      <c r="U79">
+        <v>23</v>
+      </c>
+      <c r="V79">
+        <v>8</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>1</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>95</v>
       </c>
@@ -3126,8 +6698,68 @@
       <c r="E80">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80">
+        <v>37</v>
+      </c>
+      <c r="G80">
+        <v>27</v>
+      </c>
+      <c r="H80">
+        <v>17</v>
+      </c>
+      <c r="I80">
+        <v>4</v>
+      </c>
+      <c r="J80">
+        <v>-1</v>
+      </c>
+      <c r="K80">
+        <v>-7</v>
+      </c>
+      <c r="L80">
+        <v>37</v>
+      </c>
+      <c r="M80">
+        <v>16</v>
+      </c>
+      <c r="N80">
+        <v>4</v>
+      </c>
+      <c r="O80">
+        <v>1018</v>
+      </c>
+      <c r="P80">
+        <v>1015</v>
+      </c>
+      <c r="Q80">
+        <v>1001</v>
+      </c>
+      <c r="R80">
+        <v>10</v>
+      </c>
+      <c r="S80">
+        <v>9</v>
+      </c>
+      <c r="T80">
+        <v>6</v>
+      </c>
+      <c r="U80">
+        <v>26</v>
+      </c>
+      <c r="V80">
+        <v>5</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>2</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>95</v>
       </c>
@@ -3143,8 +6775,68 @@
       <c r="E81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81">
+        <v>34</v>
+      </c>
+      <c r="G81">
+        <v>27</v>
+      </c>
+      <c r="H81">
+        <v>19</v>
+      </c>
+      <c r="I81">
+        <v>3</v>
+      </c>
+      <c r="J81">
+        <v>-9</v>
+      </c>
+      <c r="K81">
+        <v>-24</v>
+      </c>
+      <c r="L81">
+        <v>31</v>
+      </c>
+      <c r="M81">
+        <v>10</v>
+      </c>
+      <c r="N81">
+        <v>4</v>
+      </c>
+      <c r="O81">
+        <v>1018</v>
+      </c>
+      <c r="P81">
+        <v>1014</v>
+      </c>
+      <c r="Q81">
+        <v>1001</v>
+      </c>
+      <c r="R81">
+        <v>14</v>
+      </c>
+      <c r="S81">
+        <v>8</v>
+      </c>
+      <c r="T81">
+        <v>6</v>
+      </c>
+      <c r="U81">
+        <v>26</v>
+      </c>
+      <c r="V81">
+        <v>10</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>1</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>95</v>
       </c>
@@ -3160,8 +6852,65 @@
       <c r="E82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82">
+        <v>37</v>
+      </c>
+      <c r="G82">
+        <v>26</v>
+      </c>
+      <c r="H82">
+        <v>14</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>-12</v>
+      </c>
+      <c r="K82">
+        <v>-28</v>
+      </c>
+      <c r="L82">
+        <v>32</v>
+      </c>
+      <c r="M82">
+        <v>9</v>
+      </c>
+      <c r="N82">
+        <v>4</v>
+      </c>
+      <c r="O82">
+        <v>1015</v>
+      </c>
+      <c r="P82">
+        <v>1013</v>
+      </c>
+      <c r="Q82">
+        <v>1000</v>
+      </c>
+      <c r="R82">
+        <v>14</v>
+      </c>
+      <c r="S82">
+        <v>14</v>
+      </c>
+      <c r="T82">
+        <v>10</v>
+      </c>
+      <c r="U82">
+        <v>14</v>
+      </c>
+      <c r="V82">
+        <v>5</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>95</v>
       </c>
@@ -3177,8 +6926,68 @@
       <c r="E83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83">
+        <v>38</v>
+      </c>
+      <c r="G83">
+        <v>28</v>
+      </c>
+      <c r="H83">
+        <v>17</v>
+      </c>
+      <c r="I83">
+        <v>3</v>
+      </c>
+      <c r="J83">
+        <v>-10</v>
+      </c>
+      <c r="K83">
+        <v>-19</v>
+      </c>
+      <c r="L83">
+        <v>33</v>
+      </c>
+      <c r="M83">
+        <v>9</v>
+      </c>
+      <c r="N83">
+        <v>4</v>
+      </c>
+      <c r="O83">
+        <v>1017</v>
+      </c>
+      <c r="P83">
+        <v>1014</v>
+      </c>
+      <c r="Q83">
+        <v>999</v>
+      </c>
+      <c r="R83">
+        <v>14</v>
+      </c>
+      <c r="S83">
+        <v>11</v>
+      </c>
+      <c r="T83">
+        <v>10</v>
+      </c>
+      <c r="U83">
+        <v>23</v>
+      </c>
+      <c r="V83">
+        <v>8</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>1</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>95</v>
       </c>
@@ -3194,8 +7003,71 @@
       <c r="E84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84">
+        <v>38</v>
+      </c>
+      <c r="G84">
+        <v>28</v>
+      </c>
+      <c r="H84">
+        <v>18</v>
+      </c>
+      <c r="I84">
+        <v>3</v>
+      </c>
+      <c r="J84">
+        <v>-6</v>
+      </c>
+      <c r="K84">
+        <v>-12</v>
+      </c>
+      <c r="L84">
+        <v>29</v>
+      </c>
+      <c r="M84">
+        <v>11</v>
+      </c>
+      <c r="N84">
+        <v>4</v>
+      </c>
+      <c r="O84">
+        <v>1017</v>
+      </c>
+      <c r="P84">
+        <v>1014</v>
+      </c>
+      <c r="Q84">
+        <v>1001</v>
+      </c>
+      <c r="R84">
+        <v>11</v>
+      </c>
+      <c r="S84">
+        <v>10</v>
+      </c>
+      <c r="T84">
+        <v>8</v>
+      </c>
+      <c r="U84">
+        <v>29</v>
+      </c>
+      <c r="V84">
+        <v>5</v>
+      </c>
+      <c r="W84">
+        <v>39</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>1</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>95</v>
       </c>
@@ -3211,8 +7083,68 @@
       <c r="E85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85">
+        <v>37</v>
+      </c>
+      <c r="G85">
+        <v>28</v>
+      </c>
+      <c r="H85">
+        <v>19</v>
+      </c>
+      <c r="I85">
+        <v>-4</v>
+      </c>
+      <c r="J85">
+        <v>-11</v>
+      </c>
+      <c r="K85">
+        <v>-20</v>
+      </c>
+      <c r="L85">
+        <v>18</v>
+      </c>
+      <c r="M85">
+        <v>7</v>
+      </c>
+      <c r="N85">
+        <v>4</v>
+      </c>
+      <c r="O85">
+        <v>1015</v>
+      </c>
+      <c r="P85">
+        <v>1013</v>
+      </c>
+      <c r="Q85">
+        <v>998</v>
+      </c>
+      <c r="R85">
+        <v>14</v>
+      </c>
+      <c r="S85">
+        <v>13</v>
+      </c>
+      <c r="T85">
+        <v>10</v>
+      </c>
+      <c r="U85">
+        <v>23</v>
+      </c>
+      <c r="V85">
+        <v>11</v>
+      </c>
+      <c r="W85">
+        <v>39</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>95</v>
       </c>
@@ -3228,8 +7160,65 @@
       <c r="E86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86">
+        <v>34</v>
+      </c>
+      <c r="G86">
+        <v>27</v>
+      </c>
+      <c r="H86">
+        <v>20</v>
+      </c>
+      <c r="I86">
+        <v>-3</v>
+      </c>
+      <c r="J86">
+        <v>-12</v>
+      </c>
+      <c r="K86">
+        <v>-22</v>
+      </c>
+      <c r="L86">
+        <v>19</v>
+      </c>
+      <c r="M86">
+        <v>8</v>
+      </c>
+      <c r="N86">
+        <v>4</v>
+      </c>
+      <c r="O86">
+        <v>1014</v>
+      </c>
+      <c r="P86">
+        <v>1010</v>
+      </c>
+      <c r="Q86">
+        <v>997</v>
+      </c>
+      <c r="R86">
+        <v>14</v>
+      </c>
+      <c r="S86">
+        <v>14</v>
+      </c>
+      <c r="T86">
+        <v>14</v>
+      </c>
+      <c r="U86">
+        <v>23</v>
+      </c>
+      <c r="V86">
+        <v>10</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>95</v>
       </c>
@@ -3245,8 +7234,65 @@
       <c r="E87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87">
+        <v>35</v>
+      </c>
+      <c r="G87">
+        <v>26</v>
+      </c>
+      <c r="H87">
+        <v>16</v>
+      </c>
+      <c r="I87">
+        <v>5</v>
+      </c>
+      <c r="J87">
+        <v>-6</v>
+      </c>
+      <c r="K87">
+        <v>-17</v>
+      </c>
+      <c r="L87">
+        <v>45</v>
+      </c>
+      <c r="M87">
+        <v>14</v>
+      </c>
+      <c r="N87">
+        <v>4</v>
+      </c>
+      <c r="O87">
+        <v>1015</v>
+      </c>
+      <c r="P87">
+        <v>1011</v>
+      </c>
+      <c r="Q87">
+        <v>998</v>
+      </c>
+      <c r="R87">
+        <v>14</v>
+      </c>
+      <c r="S87">
+        <v>13</v>
+      </c>
+      <c r="T87">
+        <v>11</v>
+      </c>
+      <c r="U87">
+        <v>14</v>
+      </c>
+      <c r="V87">
+        <v>6</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>95</v>
       </c>
@@ -3262,8 +7308,68 @@
       <c r="E88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88">
+        <v>36</v>
+      </c>
+      <c r="G88">
+        <v>27</v>
+      </c>
+      <c r="H88">
+        <v>17</v>
+      </c>
+      <c r="I88">
+        <v>4</v>
+      </c>
+      <c r="J88">
+        <v>-4</v>
+      </c>
+      <c r="K88">
+        <v>-14</v>
+      </c>
+      <c r="L88">
+        <v>34</v>
+      </c>
+      <c r="M88">
+        <v>14</v>
+      </c>
+      <c r="N88">
+        <v>4</v>
+      </c>
+      <c r="O88">
+        <v>1014</v>
+      </c>
+      <c r="P88">
+        <v>1010</v>
+      </c>
+      <c r="Q88">
+        <v>996</v>
+      </c>
+      <c r="R88">
+        <v>14</v>
+      </c>
+      <c r="S88">
+        <v>10</v>
+      </c>
+      <c r="T88">
+        <v>10</v>
+      </c>
+      <c r="U88">
+        <v>19</v>
+      </c>
+      <c r="V88">
+        <v>5</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>1</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>95</v>
       </c>
@@ -3279,8 +7385,71 @@
       <c r="E89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89">
+        <v>36</v>
+      </c>
+      <c r="G89">
+        <v>27</v>
+      </c>
+      <c r="H89">
+        <v>18</v>
+      </c>
+      <c r="I89">
+        <v>3</v>
+      </c>
+      <c r="J89">
+        <v>-2</v>
+      </c>
+      <c r="K89">
+        <v>-7</v>
+      </c>
+      <c r="L89">
+        <v>32</v>
+      </c>
+      <c r="M89">
+        <v>14</v>
+      </c>
+      <c r="N89">
+        <v>4</v>
+      </c>
+      <c r="O89">
+        <v>1013</v>
+      </c>
+      <c r="P89">
+        <v>1010</v>
+      </c>
+      <c r="Q89">
+        <v>996</v>
+      </c>
+      <c r="R89">
+        <v>11</v>
+      </c>
+      <c r="S89">
+        <v>10</v>
+      </c>
+      <c r="T89">
+        <v>10</v>
+      </c>
+      <c r="U89">
+        <v>29</v>
+      </c>
+      <c r="V89">
+        <v>6</v>
+      </c>
+      <c r="W89">
+        <v>40</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <v>1</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>95</v>
       </c>
@@ -3296,8 +7465,65 @@
       <c r="E90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90">
+        <v>36</v>
+      </c>
+      <c r="G90">
+        <v>27</v>
+      </c>
+      <c r="H90">
+        <v>18</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>-8</v>
+      </c>
+      <c r="K90">
+        <v>-17</v>
+      </c>
+      <c r="L90">
+        <v>26</v>
+      </c>
+      <c r="M90">
+        <v>11</v>
+      </c>
+      <c r="N90">
+        <v>4</v>
+      </c>
+      <c r="O90">
+        <v>1014</v>
+      </c>
+      <c r="P90">
+        <v>1011</v>
+      </c>
+      <c r="Q90">
+        <v>998</v>
+      </c>
+      <c r="R90">
+        <v>14</v>
+      </c>
+      <c r="S90">
+        <v>7</v>
+      </c>
+      <c r="T90">
+        <v>4</v>
+      </c>
+      <c r="U90">
+        <v>34</v>
+      </c>
+      <c r="V90">
+        <v>6</v>
+      </c>
+      <c r="X90">
+        <v>0</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>95</v>
       </c>
@@ -3313,8 +7539,68 @@
       <c r="E91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91">
+        <v>36</v>
+      </c>
+      <c r="G91">
+        <v>26</v>
+      </c>
+      <c r="H91">
+        <v>16</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91">
+        <v>-7</v>
+      </c>
+      <c r="K91">
+        <v>-16</v>
+      </c>
+      <c r="L91">
+        <v>37</v>
+      </c>
+      <c r="M91">
+        <v>12</v>
+      </c>
+      <c r="N91">
+        <v>4</v>
+      </c>
+      <c r="O91">
+        <v>1015</v>
+      </c>
+      <c r="P91">
+        <v>1013</v>
+      </c>
+      <c r="Q91">
+        <v>999</v>
+      </c>
+      <c r="R91">
+        <v>10</v>
+      </c>
+      <c r="S91">
+        <v>5</v>
+      </c>
+      <c r="T91">
+        <v>3</v>
+      </c>
+      <c r="U91">
+        <v>29</v>
+      </c>
+      <c r="V91">
+        <v>6</v>
+      </c>
+      <c r="W91">
+        <v>47</v>
+      </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>95</v>
       </c>
@@ -3330,8 +7616,68 @@
       <c r="E92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92">
+        <v>38</v>
+      </c>
+      <c r="G92">
+        <v>28</v>
+      </c>
+      <c r="H92">
+        <v>17</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>-8</v>
+      </c>
+      <c r="K92">
+        <v>-17</v>
+      </c>
+      <c r="L92">
+        <v>28</v>
+      </c>
+      <c r="M92">
+        <v>11</v>
+      </c>
+      <c r="N92">
+        <v>4</v>
+      </c>
+      <c r="O92">
+        <v>1017</v>
+      </c>
+      <c r="P92">
+        <v>1014</v>
+      </c>
+      <c r="Q92">
+        <v>1000</v>
+      </c>
+      <c r="R92">
+        <v>10</v>
+      </c>
+      <c r="S92">
+        <v>5</v>
+      </c>
+      <c r="T92">
+        <v>3</v>
+      </c>
+      <c r="U92">
+        <v>23</v>
+      </c>
+      <c r="V92">
+        <v>5</v>
+      </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
+      <c r="Y92">
+        <v>1</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>95</v>
       </c>
@@ -3347,8 +7693,65 @@
       <c r="E93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93">
+        <v>38</v>
+      </c>
+      <c r="G93">
+        <v>28</v>
+      </c>
+      <c r="H93">
+        <v>18</v>
+      </c>
+      <c r="I93">
+        <v>6</v>
+      </c>
+      <c r="J93">
+        <v>-5</v>
+      </c>
+      <c r="K93">
+        <v>-10</v>
+      </c>
+      <c r="L93">
+        <v>35</v>
+      </c>
+      <c r="M93">
+        <v>10</v>
+      </c>
+      <c r="N93">
+        <v>4</v>
+      </c>
+      <c r="O93">
+        <v>1015</v>
+      </c>
+      <c r="P93">
+        <v>1012</v>
+      </c>
+      <c r="Q93">
+        <v>996</v>
+      </c>
+      <c r="R93">
+        <v>10</v>
+      </c>
+      <c r="S93">
+        <v>9</v>
+      </c>
+      <c r="T93">
+        <v>8</v>
+      </c>
+      <c r="U93">
+        <v>23</v>
+      </c>
+      <c r="V93">
+        <v>6</v>
+      </c>
+      <c r="X93">
+        <v>0</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>95</v>
       </c>
@@ -3364,8 +7767,65 @@
       <c r="E94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94">
+        <v>39</v>
+      </c>
+      <c r="G94">
+        <v>29</v>
+      </c>
+      <c r="H94">
+        <v>20</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>-9</v>
+      </c>
+      <c r="K94">
+        <v>-20</v>
+      </c>
+      <c r="L94">
+        <v>27</v>
+      </c>
+      <c r="M94">
+        <v>10</v>
+      </c>
+      <c r="N94">
+        <v>4</v>
+      </c>
+      <c r="O94">
+        <v>1014</v>
+      </c>
+      <c r="P94">
+        <v>1011</v>
+      </c>
+      <c r="Q94">
+        <v>996</v>
+      </c>
+      <c r="R94">
+        <v>10</v>
+      </c>
+      <c r="S94">
+        <v>10</v>
+      </c>
+      <c r="T94">
+        <v>10</v>
+      </c>
+      <c r="U94">
+        <v>19</v>
+      </c>
+      <c r="V94">
+        <v>3</v>
+      </c>
+      <c r="X94">
+        <v>0</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>95</v>
       </c>
@@ -3381,8 +7841,68 @@
       <c r="E95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95">
+        <v>37</v>
+      </c>
+      <c r="G95">
+        <v>29</v>
+      </c>
+      <c r="H95">
+        <v>21</v>
+      </c>
+      <c r="I95">
+        <v>4</v>
+      </c>
+      <c r="J95">
+        <v>-8</v>
+      </c>
+      <c r="K95">
+        <v>-16</v>
+      </c>
+      <c r="L95">
+        <v>31</v>
+      </c>
+      <c r="M95">
+        <v>9</v>
+      </c>
+      <c r="N95">
+        <v>4</v>
+      </c>
+      <c r="O95">
+        <v>1016</v>
+      </c>
+      <c r="P95">
+        <v>1013</v>
+      </c>
+      <c r="Q95">
+        <v>998</v>
+      </c>
+      <c r="R95">
+        <v>10</v>
+      </c>
+      <c r="S95">
+        <v>10</v>
+      </c>
+      <c r="T95">
+        <v>10</v>
+      </c>
+      <c r="U95">
+        <v>19</v>
+      </c>
+      <c r="V95">
+        <v>6</v>
+      </c>
+      <c r="X95">
+        <v>0</v>
+      </c>
+      <c r="Y95">
+        <v>1</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3398,8 +7918,68 @@
       <c r="E96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96">
+        <v>37</v>
+      </c>
+      <c r="G96">
+        <v>29</v>
+      </c>
+      <c r="H96">
+        <v>20</v>
+      </c>
+      <c r="I96">
+        <v>3</v>
+      </c>
+      <c r="J96">
+        <v>-2</v>
+      </c>
+      <c r="K96">
+        <v>-7</v>
+      </c>
+      <c r="L96">
+        <v>28</v>
+      </c>
+      <c r="M96">
+        <v>13</v>
+      </c>
+      <c r="N96">
+        <v>4</v>
+      </c>
+      <c r="O96">
+        <v>1017</v>
+      </c>
+      <c r="P96">
+        <v>1013</v>
+      </c>
+      <c r="Q96">
+        <v>997</v>
+      </c>
+      <c r="R96">
+        <v>11</v>
+      </c>
+      <c r="S96">
+        <v>10</v>
+      </c>
+      <c r="T96">
+        <v>10</v>
+      </c>
+      <c r="U96">
+        <v>19</v>
+      </c>
+      <c r="V96">
+        <v>6</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96">
+        <v>3</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -3415,8 +7995,68 @@
       <c r="E97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97">
+        <v>37</v>
+      </c>
+      <c r="G97">
+        <v>29</v>
+      </c>
+      <c r="H97">
+        <v>22</v>
+      </c>
+      <c r="I97">
+        <v>7</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>-4</v>
+      </c>
+      <c r="L97">
+        <v>35</v>
+      </c>
+      <c r="M97">
+        <v>16</v>
+      </c>
+      <c r="N97">
+        <v>4</v>
+      </c>
+      <c r="O97">
+        <v>1014</v>
+      </c>
+      <c r="P97">
+        <v>1010</v>
+      </c>
+      <c r="Q97">
+        <v>995</v>
+      </c>
+      <c r="R97">
+        <v>10</v>
+      </c>
+      <c r="S97">
+        <v>10</v>
+      </c>
+      <c r="T97">
+        <v>10</v>
+      </c>
+      <c r="U97">
+        <v>14</v>
+      </c>
+      <c r="V97">
+        <v>5</v>
+      </c>
+      <c r="X97">
+        <v>0</v>
+      </c>
+      <c r="Y97">
+        <v>3</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>95</v>
       </c>
@@ -3432,8 +8072,68 @@
       <c r="E98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98">
+        <v>38</v>
+      </c>
+      <c r="G98">
+        <v>30</v>
+      </c>
+      <c r="H98">
+        <v>23</v>
+      </c>
+      <c r="I98">
+        <v>7</v>
+      </c>
+      <c r="J98">
+        <v>-1</v>
+      </c>
+      <c r="K98">
+        <v>-9</v>
+      </c>
+      <c r="L98">
+        <v>34</v>
+      </c>
+      <c r="M98">
+        <v>15</v>
+      </c>
+      <c r="N98">
+        <v>4</v>
+      </c>
+      <c r="O98">
+        <v>1014</v>
+      </c>
+      <c r="P98">
+        <v>1011</v>
+      </c>
+      <c r="Q98">
+        <v>996</v>
+      </c>
+      <c r="R98">
+        <v>10</v>
+      </c>
+      <c r="S98">
+        <v>10</v>
+      </c>
+      <c r="T98">
+        <v>8</v>
+      </c>
+      <c r="U98">
+        <v>19</v>
+      </c>
+      <c r="V98">
+        <v>3</v>
+      </c>
+      <c r="X98">
+        <v>0</v>
+      </c>
+      <c r="Y98">
+        <v>3</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>95</v>
       </c>
@@ -3449,8 +8149,68 @@
       <c r="E99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99">
+        <v>38</v>
+      </c>
+      <c r="G99">
+        <v>29</v>
+      </c>
+      <c r="H99">
+        <v>19</v>
+      </c>
+      <c r="I99">
+        <v>6</v>
+      </c>
+      <c r="J99">
+        <v>-2</v>
+      </c>
+      <c r="K99">
+        <v>-11</v>
+      </c>
+      <c r="L99">
+        <v>35</v>
+      </c>
+      <c r="M99">
+        <v>14</v>
+      </c>
+      <c r="N99">
+        <v>4</v>
+      </c>
+      <c r="O99">
+        <v>1015</v>
+      </c>
+      <c r="P99">
+        <v>1012</v>
+      </c>
+      <c r="Q99">
+        <v>996</v>
+      </c>
+      <c r="R99">
+        <v>11</v>
+      </c>
+      <c r="S99">
+        <v>9</v>
+      </c>
+      <c r="T99">
+        <v>8</v>
+      </c>
+      <c r="U99">
+        <v>19</v>
+      </c>
+      <c r="V99">
+        <v>6</v>
+      </c>
+      <c r="X99">
+        <v>0</v>
+      </c>
+      <c r="Y99">
+        <v>1</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>95</v>
       </c>
@@ -3466,8 +8226,68 @@
       <c r="E100">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100">
+        <v>38</v>
+      </c>
+      <c r="G100">
+        <v>30</v>
+      </c>
+      <c r="H100">
+        <v>23</v>
+      </c>
+      <c r="I100">
+        <v>6</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>-8</v>
+      </c>
+      <c r="L100">
+        <v>33</v>
+      </c>
+      <c r="M100">
+        <v>15</v>
+      </c>
+      <c r="N100">
+        <v>4</v>
+      </c>
+      <c r="O100">
+        <v>1013</v>
+      </c>
+      <c r="P100">
+        <v>1010</v>
+      </c>
+      <c r="Q100">
+        <v>994</v>
+      </c>
+      <c r="R100">
+        <v>11</v>
+      </c>
+      <c r="S100">
+        <v>10</v>
+      </c>
+      <c r="T100">
+        <v>10</v>
+      </c>
+      <c r="U100">
+        <v>23</v>
+      </c>
+      <c r="V100">
+        <v>6</v>
+      </c>
+      <c r="X100">
+        <v>0</v>
+      </c>
+      <c r="Y100">
+        <v>3</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>95</v>
       </c>
@@ -3483,8 +8303,68 @@
       <c r="E101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101">
+        <v>38</v>
+      </c>
+      <c r="G101">
+        <v>29</v>
+      </c>
+      <c r="H101">
+        <v>21</v>
+      </c>
+      <c r="I101">
+        <v>5</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>-4</v>
+      </c>
+      <c r="L101">
+        <v>31</v>
+      </c>
+      <c r="M101">
+        <v>15</v>
+      </c>
+      <c r="N101">
+        <v>4</v>
+      </c>
+      <c r="O101">
+        <v>1012</v>
+      </c>
+      <c r="P101">
+        <v>1009</v>
+      </c>
+      <c r="Q101">
+        <v>993</v>
+      </c>
+      <c r="R101">
+        <v>10</v>
+      </c>
+      <c r="S101">
+        <v>10</v>
+      </c>
+      <c r="T101">
+        <v>10</v>
+      </c>
+      <c r="U101">
+        <v>19</v>
+      </c>
+      <c r="V101">
+        <v>5</v>
+      </c>
+      <c r="X101">
+        <v>0</v>
+      </c>
+      <c r="Y101">
+        <v>2</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>95</v>
       </c>
@@ -3500,8 +8380,68 @@
       <c r="E102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102">
+        <v>39</v>
+      </c>
+      <c r="G102">
+        <v>31</v>
+      </c>
+      <c r="H102">
+        <v>22</v>
+      </c>
+      <c r="I102">
+        <v>6</v>
+      </c>
+      <c r="J102">
+        <v>-1</v>
+      </c>
+      <c r="K102">
+        <v>-8</v>
+      </c>
+      <c r="L102">
+        <v>31</v>
+      </c>
+      <c r="M102">
+        <v>12</v>
+      </c>
+      <c r="N102">
+        <v>4</v>
+      </c>
+      <c r="O102">
+        <v>1014</v>
+      </c>
+      <c r="P102">
+        <v>1011</v>
+      </c>
+      <c r="Q102">
+        <v>995</v>
+      </c>
+      <c r="R102">
+        <v>10</v>
+      </c>
+      <c r="S102">
+        <v>10</v>
+      </c>
+      <c r="T102">
+        <v>10</v>
+      </c>
+      <c r="U102">
+        <v>26</v>
+      </c>
+      <c r="V102">
+        <v>8</v>
+      </c>
+      <c r="X102">
+        <v>0</v>
+      </c>
+      <c r="Y102">
+        <v>2</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>95</v>
       </c>
@@ -3517,8 +8457,68 @@
       <c r="E103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103">
+        <v>40</v>
+      </c>
+      <c r="G103">
+        <v>32</v>
+      </c>
+      <c r="H103">
+        <v>23</v>
+      </c>
+      <c r="I103">
+        <v>10</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>-7</v>
+      </c>
+      <c r="L103">
+        <v>41</v>
+      </c>
+      <c r="M103">
+        <v>15</v>
+      </c>
+      <c r="N103">
+        <v>4</v>
+      </c>
+      <c r="O103">
+        <v>1014</v>
+      </c>
+      <c r="P103">
+        <v>1011</v>
+      </c>
+      <c r="Q103">
+        <v>994</v>
+      </c>
+      <c r="R103">
+        <v>11</v>
+      </c>
+      <c r="S103">
+        <v>9</v>
+      </c>
+      <c r="T103">
+        <v>5</v>
+      </c>
+      <c r="U103">
+        <v>14</v>
+      </c>
+      <c r="V103">
+        <v>8</v>
+      </c>
+      <c r="X103">
+        <v>0</v>
+      </c>
+      <c r="Y103">
+        <v>2</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>95</v>
       </c>
@@ -3534,8 +8534,65 @@
       <c r="E104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104">
+        <v>40</v>
+      </c>
+      <c r="G104">
+        <v>32</v>
+      </c>
+      <c r="H104">
+        <v>25</v>
+      </c>
+      <c r="I104">
+        <v>8</v>
+      </c>
+      <c r="J104">
+        <v>-3</v>
+      </c>
+      <c r="K104">
+        <v>-14</v>
+      </c>
+      <c r="L104">
+        <v>24</v>
+      </c>
+      <c r="M104">
+        <v>12</v>
+      </c>
+      <c r="N104">
+        <v>4</v>
+      </c>
+      <c r="O104">
+        <v>1012</v>
+      </c>
+      <c r="P104">
+        <v>1008</v>
+      </c>
+      <c r="Q104">
+        <v>991</v>
+      </c>
+      <c r="R104">
+        <v>10</v>
+      </c>
+      <c r="S104">
+        <v>10</v>
+      </c>
+      <c r="T104">
+        <v>10</v>
+      </c>
+      <c r="U104">
+        <v>14</v>
+      </c>
+      <c r="V104">
+        <v>5</v>
+      </c>
+      <c r="X104">
+        <v>0</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>95</v>
       </c>
@@ -3551,8 +8608,68 @@
       <c r="E105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F105">
+        <v>40</v>
+      </c>
+      <c r="G105">
+        <v>31</v>
+      </c>
+      <c r="H105">
+        <v>22</v>
+      </c>
+      <c r="I105">
+        <v>8</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>-6</v>
+      </c>
+      <c r="L105">
+        <v>31</v>
+      </c>
+      <c r="M105">
+        <v>15</v>
+      </c>
+      <c r="N105">
+        <v>4</v>
+      </c>
+      <c r="O105">
+        <v>1009</v>
+      </c>
+      <c r="P105">
+        <v>1006</v>
+      </c>
+      <c r="Q105">
+        <v>990</v>
+      </c>
+      <c r="R105">
+        <v>10</v>
+      </c>
+      <c r="S105">
+        <v>9</v>
+      </c>
+      <c r="T105">
+        <v>6</v>
+      </c>
+      <c r="U105">
+        <v>19</v>
+      </c>
+      <c r="V105">
+        <v>8</v>
+      </c>
+      <c r="X105">
+        <v>0</v>
+      </c>
+      <c r="Y105">
+        <v>1</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>95</v>
       </c>
@@ -3568,8 +8685,68 @@
       <c r="E106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106">
+        <v>41</v>
+      </c>
+      <c r="G106">
+        <v>32</v>
+      </c>
+      <c r="H106">
+        <v>23</v>
+      </c>
+      <c r="I106">
+        <v>4</v>
+      </c>
+      <c r="J106">
+        <v>-1</v>
+      </c>
+      <c r="K106">
+        <v>-7</v>
+      </c>
+      <c r="L106">
+        <v>27</v>
+      </c>
+      <c r="M106">
+        <v>12</v>
+      </c>
+      <c r="N106">
+        <v>4</v>
+      </c>
+      <c r="O106">
+        <v>1008</v>
+      </c>
+      <c r="P106">
+        <v>1005</v>
+      </c>
+      <c r="Q106">
+        <v>988</v>
+      </c>
+      <c r="R106">
+        <v>10</v>
+      </c>
+      <c r="S106">
+        <v>9</v>
+      </c>
+      <c r="T106">
+        <v>8</v>
+      </c>
+      <c r="U106">
+        <v>23</v>
+      </c>
+      <c r="V106">
+        <v>6</v>
+      </c>
+      <c r="X106">
+        <v>0</v>
+      </c>
+      <c r="Y106">
+        <v>1</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>95</v>
       </c>
@@ -3585,8 +8762,68 @@
       <c r="E107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107">
+        <v>39</v>
+      </c>
+      <c r="G107">
+        <v>30</v>
+      </c>
+      <c r="H107">
+        <v>21</v>
+      </c>
+      <c r="I107">
+        <v>6</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>-9</v>
+      </c>
+      <c r="L107">
+        <v>35</v>
+      </c>
+      <c r="M107">
+        <v>15</v>
+      </c>
+      <c r="N107">
+        <v>4</v>
+      </c>
+      <c r="O107">
+        <v>1009</v>
+      </c>
+      <c r="P107">
+        <v>1006</v>
+      </c>
+      <c r="Q107">
+        <v>990</v>
+      </c>
+      <c r="R107">
+        <v>10</v>
+      </c>
+      <c r="S107">
+        <v>10</v>
+      </c>
+      <c r="T107">
+        <v>10</v>
+      </c>
+      <c r="U107">
+        <v>29</v>
+      </c>
+      <c r="V107">
+        <v>10</v>
+      </c>
+      <c r="W107">
+        <v>47</v>
+      </c>
+      <c r="X107">
+        <v>0</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>95</v>
       </c>
@@ -3602,8 +8839,65 @@
       <c r="E108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108">
+        <v>39</v>
+      </c>
+      <c r="G108">
+        <v>29</v>
+      </c>
+      <c r="H108">
+        <v>20</v>
+      </c>
+      <c r="I108">
+        <v>6</v>
+      </c>
+      <c r="J108">
+        <v>2</v>
+      </c>
+      <c r="K108">
+        <v>-5</v>
+      </c>
+      <c r="L108">
+        <v>33</v>
+      </c>
+      <c r="M108">
+        <v>17</v>
+      </c>
+      <c r="N108">
+        <v>4</v>
+      </c>
+      <c r="O108">
+        <v>1009</v>
+      </c>
+      <c r="P108">
+        <v>1007</v>
+      </c>
+      <c r="Q108">
+        <v>991</v>
+      </c>
+      <c r="R108">
+        <v>10</v>
+      </c>
+      <c r="S108">
+        <v>6</v>
+      </c>
+      <c r="T108">
+        <v>4</v>
+      </c>
+      <c r="U108">
+        <v>29</v>
+      </c>
+      <c r="V108">
+        <v>6</v>
+      </c>
+      <c r="X108">
+        <v>0</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>95</v>
       </c>
@@ -3619,8 +8913,68 @@
       <c r="E109">
         <v>3</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109">
+        <v>39</v>
+      </c>
+      <c r="G109">
+        <v>29</v>
+      </c>
+      <c r="H109">
+        <v>19</v>
+      </c>
+      <c r="I109">
+        <v>9</v>
+      </c>
+      <c r="J109">
+        <v>6</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>46</v>
+      </c>
+      <c r="M109">
+        <v>22</v>
+      </c>
+      <c r="N109">
+        <v>4</v>
+      </c>
+      <c r="O109">
+        <v>1010</v>
+      </c>
+      <c r="P109">
+        <v>1007</v>
+      </c>
+      <c r="Q109">
+        <v>992</v>
+      </c>
+      <c r="R109">
+        <v>8</v>
+      </c>
+      <c r="S109">
+        <v>6</v>
+      </c>
+      <c r="T109">
+        <v>3</v>
+      </c>
+      <c r="U109">
+        <v>29</v>
+      </c>
+      <c r="V109">
+        <v>8</v>
+      </c>
+      <c r="X109">
+        <v>0</v>
+      </c>
+      <c r="Y109">
+        <v>1</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>95</v>
       </c>
@@ -3636,8 +8990,65 @@
       <c r="E110">
         <v>3</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110">
+        <v>39</v>
+      </c>
+      <c r="G110">
+        <v>29</v>
+      </c>
+      <c r="H110">
+        <v>20</v>
+      </c>
+      <c r="I110">
+        <v>10</v>
+      </c>
+      <c r="J110">
+        <v>2</v>
+      </c>
+      <c r="K110">
+        <v>-4</v>
+      </c>
+      <c r="L110">
+        <v>49</v>
+      </c>
+      <c r="M110">
+        <v>17</v>
+      </c>
+      <c r="N110">
+        <v>4</v>
+      </c>
+      <c r="O110">
+        <v>1011</v>
+      </c>
+      <c r="P110">
+        <v>1008</v>
+      </c>
+      <c r="Q110">
+        <v>993</v>
+      </c>
+      <c r="R110">
+        <v>10</v>
+      </c>
+      <c r="S110">
+        <v>7</v>
+      </c>
+      <c r="T110">
+        <v>5</v>
+      </c>
+      <c r="U110">
+        <v>19</v>
+      </c>
+      <c r="V110">
+        <v>6</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>95</v>
       </c>
@@ -3653,8 +9064,65 @@
       <c r="E111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111">
+        <v>39</v>
+      </c>
+      <c r="G111">
+        <v>29</v>
+      </c>
+      <c r="H111">
+        <v>19</v>
+      </c>
+      <c r="I111">
+        <v>7</v>
+      </c>
+      <c r="J111">
+        <v>-1</v>
+      </c>
+      <c r="K111">
+        <v>-9</v>
+      </c>
+      <c r="L111">
+        <v>43</v>
+      </c>
+      <c r="M111">
+        <v>14</v>
+      </c>
+      <c r="N111">
+        <v>4</v>
+      </c>
+      <c r="O111">
+        <v>1012</v>
+      </c>
+      <c r="P111">
+        <v>1009</v>
+      </c>
+      <c r="Q111">
+        <v>994</v>
+      </c>
+      <c r="R111">
+        <v>14</v>
+      </c>
+      <c r="S111">
+        <v>11</v>
+      </c>
+      <c r="T111">
+        <v>10</v>
+      </c>
+      <c r="U111">
+        <v>23</v>
+      </c>
+      <c r="V111">
+        <v>8</v>
+      </c>
+      <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="AA111" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>95</v>
       </c>
@@ -3670,8 +9138,65 @@
       <c r="E112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112">
+        <v>39</v>
+      </c>
+      <c r="G112">
+        <v>29</v>
+      </c>
+      <c r="H112">
+        <v>19</v>
+      </c>
+      <c r="I112">
+        <v>6</v>
+      </c>
+      <c r="J112">
+        <v>-2</v>
+      </c>
+      <c r="K112">
+        <v>-8</v>
+      </c>
+      <c r="L112">
+        <v>33</v>
+      </c>
+      <c r="M112">
+        <v>12</v>
+      </c>
+      <c r="N112">
+        <v>4</v>
+      </c>
+      <c r="O112">
+        <v>1012</v>
+      </c>
+      <c r="P112">
+        <v>1008</v>
+      </c>
+      <c r="Q112">
+        <v>993</v>
+      </c>
+      <c r="R112">
+        <v>14</v>
+      </c>
+      <c r="S112">
+        <v>13</v>
+      </c>
+      <c r="T112">
+        <v>10</v>
+      </c>
+      <c r="U112">
+        <v>23</v>
+      </c>
+      <c r="V112">
+        <v>5</v>
+      </c>
+      <c r="X112">
+        <v>0</v>
+      </c>
+      <c r="AA112" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>95</v>
       </c>
@@ -3687,8 +9212,68 @@
       <c r="E113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113">
+        <v>40</v>
+      </c>
+      <c r="G113">
+        <v>31</v>
+      </c>
+      <c r="H113">
+        <v>21</v>
+      </c>
+      <c r="I113">
+        <v>7</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>-3</v>
+      </c>
+      <c r="L113">
+        <v>33</v>
+      </c>
+      <c r="M113">
+        <v>14</v>
+      </c>
+      <c r="N113">
+        <v>4</v>
+      </c>
+      <c r="O113">
+        <v>1011</v>
+      </c>
+      <c r="P113">
+        <v>1008</v>
+      </c>
+      <c r="Q113">
+        <v>991</v>
+      </c>
+      <c r="R113">
+        <v>14</v>
+      </c>
+      <c r="S113">
+        <v>10</v>
+      </c>
+      <c r="T113">
+        <v>10</v>
+      </c>
+      <c r="U113">
+        <v>23</v>
+      </c>
+      <c r="V113">
+        <v>8</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+      <c r="Y113">
+        <v>1</v>
+      </c>
+      <c r="AA113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>95</v>
       </c>
@@ -3704,8 +9289,65 @@
       <c r="E114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114">
+        <v>41</v>
+      </c>
+      <c r="G114">
+        <v>31</v>
+      </c>
+      <c r="H114">
+        <v>21</v>
+      </c>
+      <c r="I114">
+        <v>9</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>-7</v>
+      </c>
+      <c r="L114">
+        <v>41</v>
+      </c>
+      <c r="M114">
+        <v>14</v>
+      </c>
+      <c r="N114">
+        <v>4</v>
+      </c>
+      <c r="O114">
+        <v>1010</v>
+      </c>
+      <c r="P114">
+        <v>1007</v>
+      </c>
+      <c r="Q114">
+        <v>991</v>
+      </c>
+      <c r="R114">
+        <v>10</v>
+      </c>
+      <c r="S114">
+        <v>10</v>
+      </c>
+      <c r="T114">
+        <v>10</v>
+      </c>
+      <c r="U114">
+        <v>23</v>
+      </c>
+      <c r="V114">
+        <v>6</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+      <c r="AA114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>95</v>
       </c>
@@ -3721,8 +9363,65 @@
       <c r="E115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115">
+        <v>40</v>
+      </c>
+      <c r="G115">
+        <v>30</v>
+      </c>
+      <c r="H115">
+        <v>20</v>
+      </c>
+      <c r="I115">
+        <v>5</v>
+      </c>
+      <c r="J115">
+        <v>-1</v>
+      </c>
+      <c r="K115">
+        <v>-6</v>
+      </c>
+      <c r="L115">
+        <v>33</v>
+      </c>
+      <c r="M115">
+        <v>14</v>
+      </c>
+      <c r="N115">
+        <v>4</v>
+      </c>
+      <c r="O115">
+        <v>1011</v>
+      </c>
+      <c r="P115">
+        <v>1008</v>
+      </c>
+      <c r="Q115">
+        <v>992</v>
+      </c>
+      <c r="R115">
+        <v>10</v>
+      </c>
+      <c r="S115">
+        <v>10</v>
+      </c>
+      <c r="T115">
+        <v>10</v>
+      </c>
+      <c r="U115">
+        <v>19</v>
+      </c>
+      <c r="V115">
+        <v>6</v>
+      </c>
+      <c r="X115">
+        <v>0</v>
+      </c>
+      <c r="AA115" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>95</v>
       </c>
@@ -3738,8 +9437,68 @@
       <c r="E116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116">
+        <v>41</v>
+      </c>
+      <c r="G116">
+        <v>31</v>
+      </c>
+      <c r="H116">
+        <v>21</v>
+      </c>
+      <c r="I116">
+        <v>5</v>
+      </c>
+      <c r="J116">
+        <v>-1</v>
+      </c>
+      <c r="K116">
+        <v>-9</v>
+      </c>
+      <c r="L116">
+        <v>33</v>
+      </c>
+      <c r="M116">
+        <v>12</v>
+      </c>
+      <c r="N116">
+        <v>4</v>
+      </c>
+      <c r="O116">
+        <v>1012</v>
+      </c>
+      <c r="P116">
+        <v>1009</v>
+      </c>
+      <c r="Q116">
+        <v>993</v>
+      </c>
+      <c r="R116">
+        <v>10</v>
+      </c>
+      <c r="S116">
+        <v>8</v>
+      </c>
+      <c r="T116">
+        <v>6</v>
+      </c>
+      <c r="U116">
+        <v>26</v>
+      </c>
+      <c r="V116">
+        <v>6</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Y116">
+        <v>1</v>
+      </c>
+      <c r="AA116" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>95</v>
       </c>
@@ -3755,8 +9514,68 @@
       <c r="E117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F117">
+        <v>40</v>
+      </c>
+      <c r="G117">
+        <v>32</v>
+      </c>
+      <c r="H117">
+        <v>25</v>
+      </c>
+      <c r="I117">
+        <v>9</v>
+      </c>
+      <c r="J117">
+        <v>3</v>
+      </c>
+      <c r="K117">
+        <v>-3</v>
+      </c>
+      <c r="L117">
+        <v>30</v>
+      </c>
+      <c r="M117">
+        <v>14</v>
+      </c>
+      <c r="N117">
+        <v>5</v>
+      </c>
+      <c r="O117">
+        <v>1012</v>
+      </c>
+      <c r="P117">
+        <v>1009</v>
+      </c>
+      <c r="Q117">
+        <v>993</v>
+      </c>
+      <c r="R117">
+        <v>8</v>
+      </c>
+      <c r="S117">
+        <v>7</v>
+      </c>
+      <c r="T117">
+        <v>6</v>
+      </c>
+      <c r="U117">
+        <v>19</v>
+      </c>
+      <c r="V117">
+        <v>6</v>
+      </c>
+      <c r="X117">
+        <v>0</v>
+      </c>
+      <c r="Y117">
+        <v>4</v>
+      </c>
+      <c r="AA117" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>95</v>
       </c>
@@ -3772,8 +9591,71 @@
       <c r="E118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F118">
+        <v>39</v>
+      </c>
+      <c r="G118">
+        <v>32</v>
+      </c>
+      <c r="H118">
+        <v>24</v>
+      </c>
+      <c r="I118">
+        <v>12</v>
+      </c>
+      <c r="J118">
+        <v>-4</v>
+      </c>
+      <c r="K118">
+        <v>-27</v>
+      </c>
+      <c r="L118">
+        <v>42</v>
+      </c>
+      <c r="M118">
+        <v>13</v>
+      </c>
+      <c r="N118">
+        <v>4</v>
+      </c>
+      <c r="O118">
+        <v>1014</v>
+      </c>
+      <c r="P118">
+        <v>1011</v>
+      </c>
+      <c r="Q118">
+        <v>995</v>
+      </c>
+      <c r="R118">
+        <v>14</v>
+      </c>
+      <c r="S118">
+        <v>7</v>
+      </c>
+      <c r="T118">
+        <v>6</v>
+      </c>
+      <c r="U118">
+        <v>23</v>
+      </c>
+      <c r="V118">
+        <v>5</v>
+      </c>
+      <c r="W118">
+        <v>35</v>
+      </c>
+      <c r="X118">
+        <v>0</v>
+      </c>
+      <c r="Y118">
+        <v>3</v>
+      </c>
+      <c r="AA118" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>95</v>
       </c>
@@ -3789,8 +9671,65 @@
       <c r="E119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F119">
+        <v>40</v>
+      </c>
+      <c r="G119">
+        <v>30</v>
+      </c>
+      <c r="H119">
+        <v>21</v>
+      </c>
+      <c r="I119">
+        <v>3</v>
+      </c>
+      <c r="J119">
+        <v>-7</v>
+      </c>
+      <c r="K119">
+        <v>-19</v>
+      </c>
+      <c r="L119">
+        <v>28</v>
+      </c>
+      <c r="M119">
+        <v>10</v>
+      </c>
+      <c r="N119">
+        <v>4</v>
+      </c>
+      <c r="O119">
+        <v>1014</v>
+      </c>
+      <c r="P119">
+        <v>1010</v>
+      </c>
+      <c r="Q119">
+        <v>994</v>
+      </c>
+      <c r="R119">
+        <v>14</v>
+      </c>
+      <c r="S119">
+        <v>14</v>
+      </c>
+      <c r="T119">
+        <v>14</v>
+      </c>
+      <c r="U119">
+        <v>14</v>
+      </c>
+      <c r="V119">
+        <v>6</v>
+      </c>
+      <c r="X119">
+        <v>0</v>
+      </c>
+      <c r="AA119" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>95</v>
       </c>
@@ -3806,8 +9745,68 @@
       <c r="E120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F120">
+        <v>39</v>
+      </c>
+      <c r="G120">
+        <v>30</v>
+      </c>
+      <c r="H120">
+        <v>21</v>
+      </c>
+      <c r="I120">
+        <v>4</v>
+      </c>
+      <c r="J120">
+        <v>-6</v>
+      </c>
+      <c r="K120">
+        <v>-14</v>
+      </c>
+      <c r="L120">
+        <v>25</v>
+      </c>
+      <c r="M120">
+        <v>10</v>
+      </c>
+      <c r="N120">
+        <v>4</v>
+      </c>
+      <c r="O120">
+        <v>1013</v>
+      </c>
+      <c r="P120">
+        <v>1010</v>
+      </c>
+      <c r="Q120">
+        <v>994</v>
+      </c>
+      <c r="R120">
+        <v>14</v>
+      </c>
+      <c r="S120">
+        <v>11</v>
+      </c>
+      <c r="T120">
+        <v>10</v>
+      </c>
+      <c r="U120">
+        <v>14</v>
+      </c>
+      <c r="V120">
+        <v>6</v>
+      </c>
+      <c r="X120">
+        <v>0</v>
+      </c>
+      <c r="Y120">
+        <v>2</v>
+      </c>
+      <c r="AA120" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>95</v>
       </c>
@@ -3823,8 +9822,68 @@
       <c r="E121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F121">
+        <v>39</v>
+      </c>
+      <c r="G121">
+        <v>31</v>
+      </c>
+      <c r="H121">
+        <v>24</v>
+      </c>
+      <c r="I121">
+        <v>9</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>-4</v>
+      </c>
+      <c r="L121">
+        <v>36</v>
+      </c>
+      <c r="M121">
+        <v>14</v>
+      </c>
+      <c r="N121">
+        <v>4</v>
+      </c>
+      <c r="O121">
+        <v>1014</v>
+      </c>
+      <c r="P121">
+        <v>1011</v>
+      </c>
+      <c r="Q121">
+        <v>995</v>
+      </c>
+      <c r="R121">
+        <v>14</v>
+      </c>
+      <c r="S121">
+        <v>10</v>
+      </c>
+      <c r="T121">
+        <v>10</v>
+      </c>
+      <c r="U121">
+        <v>19</v>
+      </c>
+      <c r="V121">
+        <v>6</v>
+      </c>
+      <c r="X121">
+        <v>0</v>
+      </c>
+      <c r="Y121">
+        <v>3</v>
+      </c>
+      <c r="AA121" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>95</v>
       </c>
@@ -3840,8 +9899,71 @@
       <c r="E122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F122">
+        <v>38</v>
+      </c>
+      <c r="G122">
+        <v>31</v>
+      </c>
+      <c r="H122">
+        <v>23</v>
+      </c>
+      <c r="I122">
+        <v>11</v>
+      </c>
+      <c r="J122">
+        <v>4</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>39</v>
+      </c>
+      <c r="M122">
+        <v>18</v>
+      </c>
+      <c r="N122">
+        <v>6</v>
+      </c>
+      <c r="O122">
+        <v>1013</v>
+      </c>
+      <c r="P122">
+        <v>1011</v>
+      </c>
+      <c r="Q122">
+        <v>995</v>
+      </c>
+      <c r="R122">
+        <v>10</v>
+      </c>
+      <c r="S122">
+        <v>9</v>
+      </c>
+      <c r="T122">
+        <v>2</v>
+      </c>
+      <c r="U122">
+        <v>29</v>
+      </c>
+      <c r="V122">
+        <v>5</v>
+      </c>
+      <c r="X122">
+        <v>0</v>
+      </c>
+      <c r="Y122">
+        <v>3</v>
+      </c>
+      <c r="Z122" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA122" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>95</v>
       </c>
@@ -3857,8 +9979,68 @@
       <c r="E123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F123">
+        <v>39</v>
+      </c>
+      <c r="G123">
+        <v>30</v>
+      </c>
+      <c r="H123">
+        <v>22</v>
+      </c>
+      <c r="I123">
+        <v>9</v>
+      </c>
+      <c r="J123">
+        <v>4</v>
+      </c>
+      <c r="K123">
+        <v>-3</v>
+      </c>
+      <c r="L123">
+        <v>43</v>
+      </c>
+      <c r="M123">
+        <v>20</v>
+      </c>
+      <c r="N123">
+        <v>4</v>
+      </c>
+      <c r="O123">
+        <v>1014</v>
+      </c>
+      <c r="P123">
+        <v>1011</v>
+      </c>
+      <c r="Q123">
+        <v>996</v>
+      </c>
+      <c r="R123">
+        <v>11</v>
+      </c>
+      <c r="S123">
+        <v>10</v>
+      </c>
+      <c r="T123">
+        <v>6</v>
+      </c>
+      <c r="U123">
+        <v>11</v>
+      </c>
+      <c r="V123">
+        <v>3</v>
+      </c>
+      <c r="X123">
+        <v>0</v>
+      </c>
+      <c r="Y123">
+        <v>4</v>
+      </c>
+      <c r="AA123" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>95</v>
       </c>
@@ -3874,8 +10056,68 @@
       <c r="E124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F124">
+        <v>40</v>
+      </c>
+      <c r="G124">
+        <v>31</v>
+      </c>
+      <c r="H124">
+        <v>21</v>
+      </c>
+      <c r="I124">
+        <v>10</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>-8</v>
+      </c>
+      <c r="L124">
+        <v>46</v>
+      </c>
+      <c r="M124">
+        <v>17</v>
+      </c>
+      <c r="N124">
+        <v>4</v>
+      </c>
+      <c r="O124">
+        <v>1016</v>
+      </c>
+      <c r="P124">
+        <v>1012</v>
+      </c>
+      <c r="Q124">
+        <v>996</v>
+      </c>
+      <c r="R124">
+        <v>14</v>
+      </c>
+      <c r="S124">
+        <v>10</v>
+      </c>
+      <c r="T124">
+        <v>10</v>
+      </c>
+      <c r="U124">
+        <v>26</v>
+      </c>
+      <c r="V124">
+        <v>5</v>
+      </c>
+      <c r="X124">
+        <v>0</v>
+      </c>
+      <c r="Y124">
+        <v>2</v>
+      </c>
+      <c r="AA124" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>95</v>
       </c>
@@ -3891,8 +10133,68 @@
       <c r="E125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F125">
+        <v>41</v>
+      </c>
+      <c r="G125">
+        <v>33</v>
+      </c>
+      <c r="H125">
+        <v>24</v>
+      </c>
+      <c r="I125">
+        <v>8</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>-8</v>
+      </c>
+      <c r="L125">
+        <v>44</v>
+      </c>
+      <c r="M125">
+        <v>13</v>
+      </c>
+      <c r="N125">
+        <v>4</v>
+      </c>
+      <c r="O125">
+        <v>1015</v>
+      </c>
+      <c r="P125">
+        <v>1011</v>
+      </c>
+      <c r="Q125">
+        <v>993</v>
+      </c>
+      <c r="R125">
+        <v>11</v>
+      </c>
+      <c r="S125">
+        <v>10</v>
+      </c>
+      <c r="T125">
+        <v>10</v>
+      </c>
+      <c r="U125">
+        <v>23</v>
+      </c>
+      <c r="V125">
+        <v>8</v>
+      </c>
+      <c r="X125">
+        <v>0</v>
+      </c>
+      <c r="Y125">
+        <v>2</v>
+      </c>
+      <c r="AA125" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>95</v>
       </c>
@@ -3908,8 +10210,68 @@
       <c r="E126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F126">
+        <v>40</v>
+      </c>
+      <c r="G126">
+        <v>31</v>
+      </c>
+      <c r="H126">
+        <v>22</v>
+      </c>
+      <c r="I126">
+        <v>9</v>
+      </c>
+      <c r="J126">
+        <v>-1</v>
+      </c>
+      <c r="K126">
+        <v>-16</v>
+      </c>
+      <c r="L126">
+        <v>38</v>
+      </c>
+      <c r="M126">
+        <v>14</v>
+      </c>
+      <c r="N126">
+        <v>4</v>
+      </c>
+      <c r="O126">
+        <v>1012</v>
+      </c>
+      <c r="P126">
+        <v>1009</v>
+      </c>
+      <c r="Q126">
+        <v>992</v>
+      </c>
+      <c r="R126">
+        <v>14</v>
+      </c>
+      <c r="S126">
+        <v>11</v>
+      </c>
+      <c r="T126">
+        <v>10</v>
+      </c>
+      <c r="U126">
+        <v>14</v>
+      </c>
+      <c r="V126">
+        <v>5</v>
+      </c>
+      <c r="X126">
+        <v>0</v>
+      </c>
+      <c r="Y126">
+        <v>1</v>
+      </c>
+      <c r="AA126" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>95</v>
       </c>
@@ -3925,8 +10287,71 @@
       <c r="E127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F127">
+        <v>41</v>
+      </c>
+      <c r="G127">
+        <v>32</v>
+      </c>
+      <c r="H127">
+        <v>24</v>
+      </c>
+      <c r="I127">
+        <v>8</v>
+      </c>
+      <c r="J127">
+        <v>2</v>
+      </c>
+      <c r="K127">
+        <v>-7</v>
+      </c>
+      <c r="L127">
+        <v>30</v>
+      </c>
+      <c r="M127">
+        <v>15</v>
+      </c>
+      <c r="N127">
+        <v>4</v>
+      </c>
+      <c r="O127">
+        <v>1010</v>
+      </c>
+      <c r="P127">
+        <v>1008</v>
+      </c>
+      <c r="Q127">
+        <v>991</v>
+      </c>
+      <c r="R127">
+        <v>14</v>
+      </c>
+      <c r="S127">
+        <v>9</v>
+      </c>
+      <c r="T127">
+        <v>5</v>
+      </c>
+      <c r="U127">
+        <v>37</v>
+      </c>
+      <c r="V127">
+        <v>8</v>
+      </c>
+      <c r="W127">
+        <v>55</v>
+      </c>
+      <c r="X127">
+        <v>0</v>
+      </c>
+      <c r="Y127">
+        <v>3</v>
+      </c>
+      <c r="AA127" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>95</v>
       </c>
@@ -3942,8 +10367,68 @@
       <c r="E128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F128">
+        <v>39</v>
+      </c>
+      <c r="G128">
+        <v>31</v>
+      </c>
+      <c r="H128">
+        <v>22</v>
+      </c>
+      <c r="I128">
+        <v>14</v>
+      </c>
+      <c r="J128">
+        <v>9</v>
+      </c>
+      <c r="K128">
+        <v>-2</v>
+      </c>
+      <c r="L128">
+        <v>46</v>
+      </c>
+      <c r="M128">
+        <v>26</v>
+      </c>
+      <c r="N128">
+        <v>6</v>
+      </c>
+      <c r="O128">
+        <v>1013</v>
+      </c>
+      <c r="P128">
+        <v>1010</v>
+      </c>
+      <c r="Q128">
+        <v>994</v>
+      </c>
+      <c r="R128">
+        <v>10</v>
+      </c>
+      <c r="S128">
+        <v>6</v>
+      </c>
+      <c r="T128">
+        <v>3</v>
+      </c>
+      <c r="U128">
+        <v>35</v>
+      </c>
+      <c r="V128">
+        <v>5</v>
+      </c>
+      <c r="X128">
+        <v>0</v>
+      </c>
+      <c r="Y128">
+        <v>3</v>
+      </c>
+      <c r="AA128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>95</v>
       </c>
@@ -3959,8 +10444,68 @@
       <c r="E129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F129">
+        <v>40</v>
+      </c>
+      <c r="G129">
+        <v>31</v>
+      </c>
+      <c r="H129">
+        <v>23</v>
+      </c>
+      <c r="I129">
+        <v>14</v>
+      </c>
+      <c r="J129">
+        <v>9</v>
+      </c>
+      <c r="K129">
+        <v>-2</v>
+      </c>
+      <c r="L129">
+        <v>57</v>
+      </c>
+      <c r="M129">
+        <v>29</v>
+      </c>
+      <c r="N129">
+        <v>4</v>
+      </c>
+      <c r="O129">
+        <v>1013</v>
+      </c>
+      <c r="P129">
+        <v>1010</v>
+      </c>
+      <c r="Q129">
+        <v>993</v>
+      </c>
+      <c r="R129">
+        <v>8</v>
+      </c>
+      <c r="S129">
+        <v>6</v>
+      </c>
+      <c r="T129">
+        <v>6</v>
+      </c>
+      <c r="U129">
+        <v>23</v>
+      </c>
+      <c r="V129">
+        <v>6</v>
+      </c>
+      <c r="X129">
+        <v>0</v>
+      </c>
+      <c r="Y129">
+        <v>3</v>
+      </c>
+      <c r="AA129" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>95</v>
       </c>
@@ -3976,8 +10521,68 @@
       <c r="E130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F130">
+        <v>40</v>
+      </c>
+      <c r="G130">
+        <v>31</v>
+      </c>
+      <c r="H130">
+        <v>21</v>
+      </c>
+      <c r="I130">
+        <v>13</v>
+      </c>
+      <c r="J130">
+        <v>8</v>
+      </c>
+      <c r="K130">
+        <v>-3</v>
+      </c>
+      <c r="L130">
+        <v>57</v>
+      </c>
+      <c r="M130">
+        <v>25</v>
+      </c>
+      <c r="N130">
+        <v>4</v>
+      </c>
+      <c r="O130">
+        <v>1012</v>
+      </c>
+      <c r="P130">
+        <v>1009</v>
+      </c>
+      <c r="Q130">
+        <v>993</v>
+      </c>
+      <c r="R130">
+        <v>8</v>
+      </c>
+      <c r="S130">
+        <v>7</v>
+      </c>
+      <c r="T130">
+        <v>6</v>
+      </c>
+      <c r="U130">
+        <v>19</v>
+      </c>
+      <c r="V130">
+        <v>3</v>
+      </c>
+      <c r="X130">
+        <v>0</v>
+      </c>
+      <c r="Y130">
+        <v>1</v>
+      </c>
+      <c r="AA130" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>95</v>
       </c>
@@ -3993,8 +10598,68 @@
       <c r="E131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F131">
+        <v>39</v>
+      </c>
+      <c r="G131">
+        <v>31</v>
+      </c>
+      <c r="H131">
+        <v>24</v>
+      </c>
+      <c r="I131">
+        <v>15</v>
+      </c>
+      <c r="J131">
+        <v>11</v>
+      </c>
+      <c r="K131">
+        <v>7</v>
+      </c>
+      <c r="L131">
+        <v>53</v>
+      </c>
+      <c r="M131">
+        <v>29</v>
+      </c>
+      <c r="N131">
+        <v>8</v>
+      </c>
+      <c r="O131">
+        <v>1012</v>
+      </c>
+      <c r="P131">
+        <v>1009</v>
+      </c>
+      <c r="Q131">
+        <v>992</v>
+      </c>
+      <c r="R131">
+        <v>10</v>
+      </c>
+      <c r="S131">
+        <v>7</v>
+      </c>
+      <c r="T131">
+        <v>5</v>
+      </c>
+      <c r="U131">
+        <v>23</v>
+      </c>
+      <c r="V131">
+        <v>6</v>
+      </c>
+      <c r="X131">
+        <v>0</v>
+      </c>
+      <c r="Y131">
+        <v>2</v>
+      </c>
+      <c r="AA131" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>95</v>
       </c>
@@ -4010,8 +10675,68 @@
       <c r="E132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F132">
+        <v>38</v>
+      </c>
+      <c r="G132">
+        <v>31</v>
+      </c>
+      <c r="H132">
+        <v>23</v>
+      </c>
+      <c r="I132">
+        <v>15</v>
+      </c>
+      <c r="J132">
+        <v>11</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>53</v>
+      </c>
+      <c r="M132">
+        <v>29</v>
+      </c>
+      <c r="N132">
+        <v>7</v>
+      </c>
+      <c r="O132">
+        <v>1013</v>
+      </c>
+      <c r="P132">
+        <v>1009</v>
+      </c>
+      <c r="Q132">
+        <v>993</v>
+      </c>
+      <c r="R132">
+        <v>10</v>
+      </c>
+      <c r="S132">
+        <v>8</v>
+      </c>
+      <c r="T132">
+        <v>6</v>
+      </c>
+      <c r="U132">
+        <v>23</v>
+      </c>
+      <c r="V132">
+        <v>8</v>
+      </c>
+      <c r="X132">
+        <v>0</v>
+      </c>
+      <c r="Y132">
+        <v>2</v>
+      </c>
+      <c r="AA132" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>95</v>
       </c>
@@ -4027,8 +10752,68 @@
       <c r="E133">
         <v>5</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F133">
+        <v>39</v>
+      </c>
+      <c r="G133">
+        <v>32</v>
+      </c>
+      <c r="H133">
+        <v>24</v>
+      </c>
+      <c r="I133">
+        <v>16</v>
+      </c>
+      <c r="J133">
+        <v>12</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>57</v>
+      </c>
+      <c r="M133">
+        <v>32</v>
+      </c>
+      <c r="N133">
+        <v>5</v>
+      </c>
+      <c r="O133">
+        <v>1012</v>
+      </c>
+      <c r="P133">
+        <v>1009</v>
+      </c>
+      <c r="Q133">
+        <v>992</v>
+      </c>
+      <c r="R133">
+        <v>10</v>
+      </c>
+      <c r="S133">
+        <v>8</v>
+      </c>
+      <c r="T133">
+        <v>6</v>
+      </c>
+      <c r="U133">
+        <v>23</v>
+      </c>
+      <c r="V133">
+        <v>8</v>
+      </c>
+      <c r="X133">
+        <v>0</v>
+      </c>
+      <c r="Y133">
+        <v>1</v>
+      </c>
+      <c r="AA133" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>95</v>
       </c>
@@ -4044,8 +10829,71 @@
       <c r="E134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F134">
+        <v>39</v>
+      </c>
+      <c r="G134">
+        <v>32</v>
+      </c>
+      <c r="H134">
+        <v>26</v>
+      </c>
+      <c r="I134">
+        <v>16</v>
+      </c>
+      <c r="J134">
+        <v>12</v>
+      </c>
+      <c r="K134">
+        <v>2</v>
+      </c>
+      <c r="L134">
+        <v>54</v>
+      </c>
+      <c r="M134">
+        <v>32</v>
+      </c>
+      <c r="N134">
+        <v>7</v>
+      </c>
+      <c r="O134">
+        <v>1014</v>
+      </c>
+      <c r="P134">
+        <v>1011</v>
+      </c>
+      <c r="Q134">
+        <v>994</v>
+      </c>
+      <c r="R134">
+        <v>10</v>
+      </c>
+      <c r="S134">
+        <v>7</v>
+      </c>
+      <c r="T134">
+        <v>6</v>
+      </c>
+      <c r="U134">
+        <v>23</v>
+      </c>
+      <c r="V134">
+        <v>10</v>
+      </c>
+      <c r="X134">
+        <v>0</v>
+      </c>
+      <c r="Y134">
+        <v>3</v>
+      </c>
+      <c r="Z134" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA134" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>95</v>
       </c>
@@ -4061,8 +10909,71 @@
       <c r="E135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F135">
+        <v>39</v>
+      </c>
+      <c r="G135">
+        <v>30</v>
+      </c>
+      <c r="H135">
+        <v>21</v>
+      </c>
+      <c r="I135">
+        <v>13</v>
+      </c>
+      <c r="J135">
+        <v>9</v>
+      </c>
+      <c r="K135">
+        <v>3</v>
+      </c>
+      <c r="L135">
+        <v>56</v>
+      </c>
+      <c r="M135">
+        <v>29</v>
+      </c>
+      <c r="N135">
+        <v>6</v>
+      </c>
+      <c r="O135">
+        <v>1015</v>
+      </c>
+      <c r="P135">
+        <v>1012</v>
+      </c>
+      <c r="Q135">
+        <v>996</v>
+      </c>
+      <c r="R135">
+        <v>10</v>
+      </c>
+      <c r="S135">
+        <v>9</v>
+      </c>
+      <c r="T135">
+        <v>6</v>
+      </c>
+      <c r="U135">
+        <v>23</v>
+      </c>
+      <c r="V135">
+        <v>5</v>
+      </c>
+      <c r="W135">
+        <v>45</v>
+      </c>
+      <c r="X135">
+        <v>0</v>
+      </c>
+      <c r="Y135">
+        <v>3</v>
+      </c>
+      <c r="AA135" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>95</v>
       </c>
@@ -4078,8 +10989,68 @@
       <c r="E136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F136">
+        <v>38</v>
+      </c>
+      <c r="G136">
+        <v>31</v>
+      </c>
+      <c r="H136">
+        <v>23</v>
+      </c>
+      <c r="I136">
+        <v>12</v>
+      </c>
+      <c r="J136">
+        <v>7</v>
+      </c>
+      <c r="K136">
+        <v>3</v>
+      </c>
+      <c r="L136">
+        <v>44</v>
+      </c>
+      <c r="M136">
+        <v>22</v>
+      </c>
+      <c r="N136">
+        <v>7</v>
+      </c>
+      <c r="O136">
+        <v>1013</v>
+      </c>
+      <c r="P136">
+        <v>1009</v>
+      </c>
+      <c r="Q136">
+        <v>991</v>
+      </c>
+      <c r="R136">
+        <v>10</v>
+      </c>
+      <c r="S136">
+        <v>9</v>
+      </c>
+      <c r="T136">
+        <v>8</v>
+      </c>
+      <c r="U136">
+        <v>14</v>
+      </c>
+      <c r="V136">
+        <v>3</v>
+      </c>
+      <c r="X136">
+        <v>0</v>
+      </c>
+      <c r="Y136">
+        <v>3</v>
+      </c>
+      <c r="AA136" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>95</v>
       </c>
@@ -4095,8 +11066,68 @@
       <c r="E137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F137">
+        <v>38</v>
+      </c>
+      <c r="G137">
+        <v>31</v>
+      </c>
+      <c r="H137">
+        <v>24</v>
+      </c>
+      <c r="I137">
+        <v>12</v>
+      </c>
+      <c r="J137">
+        <v>4</v>
+      </c>
+      <c r="K137">
+        <v>-3</v>
+      </c>
+      <c r="L137">
+        <v>39</v>
+      </c>
+      <c r="M137">
+        <v>21</v>
+      </c>
+      <c r="N137">
+        <v>4</v>
+      </c>
+      <c r="O137">
+        <v>1011</v>
+      </c>
+      <c r="P137">
+        <v>1007</v>
+      </c>
+      <c r="Q137">
+        <v>991</v>
+      </c>
+      <c r="R137">
+        <v>10</v>
+      </c>
+      <c r="S137">
+        <v>9</v>
+      </c>
+      <c r="T137">
+        <v>5</v>
+      </c>
+      <c r="U137">
+        <v>35</v>
+      </c>
+      <c r="V137">
+        <v>8</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <v>1</v>
+      </c>
+      <c r="AA137" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>95</v>
       </c>
@@ -4112,8 +11143,68 @@
       <c r="E138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F138">
+        <v>36</v>
+      </c>
+      <c r="G138">
+        <v>29</v>
+      </c>
+      <c r="H138">
+        <v>23</v>
+      </c>
+      <c r="I138">
+        <v>14</v>
+      </c>
+      <c r="J138">
+        <v>8</v>
+      </c>
+      <c r="K138">
+        <v>-1</v>
+      </c>
+      <c r="L138">
+        <v>57</v>
+      </c>
+      <c r="M138">
+        <v>27</v>
+      </c>
+      <c r="N138">
+        <v>6</v>
+      </c>
+      <c r="O138">
+        <v>1014</v>
+      </c>
+      <c r="P138">
+        <v>1011</v>
+      </c>
+      <c r="Q138">
+        <v>994</v>
+      </c>
+      <c r="R138">
+        <v>10</v>
+      </c>
+      <c r="S138">
+        <v>9</v>
+      </c>
+      <c r="T138">
+        <v>5</v>
+      </c>
+      <c r="U138">
+        <v>26</v>
+      </c>
+      <c r="V138">
+        <v>5</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+      <c r="Y138">
+        <v>4</v>
+      </c>
+      <c r="AA138" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>95</v>
       </c>
@@ -4129,8 +11220,68 @@
       <c r="E139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F139">
+        <v>37</v>
+      </c>
+      <c r="G139">
+        <v>29</v>
+      </c>
+      <c r="H139">
+        <v>22</v>
+      </c>
+      <c r="I139">
+        <v>11</v>
+      </c>
+      <c r="J139">
+        <v>7</v>
+      </c>
+      <c r="K139">
+        <v>4</v>
+      </c>
+      <c r="L139">
+        <v>50</v>
+      </c>
+      <c r="M139">
+        <v>25</v>
+      </c>
+      <c r="N139">
+        <v>8</v>
+      </c>
+      <c r="O139">
+        <v>1014</v>
+      </c>
+      <c r="P139">
+        <v>1011</v>
+      </c>
+      <c r="Q139">
+        <v>997</v>
+      </c>
+      <c r="R139">
+        <v>10</v>
+      </c>
+      <c r="S139">
+        <v>10</v>
+      </c>
+      <c r="T139">
+        <v>8</v>
+      </c>
+      <c r="U139">
+        <v>26</v>
+      </c>
+      <c r="V139">
+        <v>5</v>
+      </c>
+      <c r="X139">
+        <v>0</v>
+      </c>
+      <c r="Y139">
+        <v>3</v>
+      </c>
+      <c r="AA139" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>95</v>
       </c>
@@ -4146,8 +11297,68 @@
       <c r="E140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F140">
+        <v>37</v>
+      </c>
+      <c r="G140">
+        <v>28</v>
+      </c>
+      <c r="H140">
+        <v>20</v>
+      </c>
+      <c r="I140">
+        <v>7</v>
+      </c>
+      <c r="J140">
+        <v>-3</v>
+      </c>
+      <c r="K140">
+        <v>-9</v>
+      </c>
+      <c r="L140">
+        <v>33</v>
+      </c>
+      <c r="M140">
+        <v>13</v>
+      </c>
+      <c r="N140">
+        <v>4</v>
+      </c>
+      <c r="O140">
+        <v>1016</v>
+      </c>
+      <c r="P140">
+        <v>1012</v>
+      </c>
+      <c r="Q140">
+        <v>997</v>
+      </c>
+      <c r="R140">
+        <v>14</v>
+      </c>
+      <c r="S140">
+        <v>11</v>
+      </c>
+      <c r="T140">
+        <v>10</v>
+      </c>
+      <c r="U140">
+        <v>23</v>
+      </c>
+      <c r="V140">
+        <v>6</v>
+      </c>
+      <c r="X140">
+        <v>0</v>
+      </c>
+      <c r="Y140">
+        <v>1</v>
+      </c>
+      <c r="AA140" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>95</v>
       </c>
@@ -4163,8 +11374,65 @@
       <c r="E141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F141">
+        <v>37</v>
+      </c>
+      <c r="G141">
+        <v>28</v>
+      </c>
+      <c r="H141">
+        <v>18</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141">
+        <v>-6</v>
+      </c>
+      <c r="K141">
+        <v>-11</v>
+      </c>
+      <c r="L141">
+        <v>26</v>
+      </c>
+      <c r="M141">
+        <v>11</v>
+      </c>
+      <c r="N141">
+        <v>4</v>
+      </c>
+      <c r="O141">
+        <v>1015</v>
+      </c>
+      <c r="P141">
+        <v>1012</v>
+      </c>
+      <c r="Q141">
+        <v>997</v>
+      </c>
+      <c r="R141">
+        <v>14</v>
+      </c>
+      <c r="S141">
+        <v>13</v>
+      </c>
+      <c r="T141">
+        <v>11</v>
+      </c>
+      <c r="U141">
+        <v>14</v>
+      </c>
+      <c r="V141">
+        <v>5</v>
+      </c>
+      <c r="X141">
+        <v>0</v>
+      </c>
+      <c r="AA141" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>95</v>
       </c>
@@ -4180,8 +11448,65 @@
       <c r="E142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F142">
+        <v>36</v>
+      </c>
+      <c r="G142">
+        <v>28</v>
+      </c>
+      <c r="H142">
+        <v>19</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>-8</v>
+      </c>
+      <c r="K142">
+        <v>-20</v>
+      </c>
+      <c r="L142">
+        <v>28</v>
+      </c>
+      <c r="M142">
+        <v>10</v>
+      </c>
+      <c r="N142">
+        <v>4</v>
+      </c>
+      <c r="O142">
+        <v>1015</v>
+      </c>
+      <c r="P142">
+        <v>1012</v>
+      </c>
+      <c r="Q142">
+        <v>998</v>
+      </c>
+      <c r="R142">
+        <v>14</v>
+      </c>
+      <c r="S142">
+        <v>14</v>
+      </c>
+      <c r="T142">
+        <v>14</v>
+      </c>
+      <c r="U142">
+        <v>14</v>
+      </c>
+      <c r="V142">
+        <v>3</v>
+      </c>
+      <c r="X142">
+        <v>0</v>
+      </c>
+      <c r="AA142" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>95</v>
       </c>
@@ -4197,8 +11522,65 @@
       <c r="E143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F143">
+        <v>38</v>
+      </c>
+      <c r="G143">
+        <v>28</v>
+      </c>
+      <c r="H143">
+        <v>18</v>
+      </c>
+      <c r="I143">
+        <v>4</v>
+      </c>
+      <c r="J143">
+        <v>-6</v>
+      </c>
+      <c r="K143">
+        <v>-16</v>
+      </c>
+      <c r="L143">
+        <v>33</v>
+      </c>
+      <c r="M143">
+        <v>13</v>
+      </c>
+      <c r="N143">
+        <v>4</v>
+      </c>
+      <c r="O143">
+        <v>1015</v>
+      </c>
+      <c r="P143">
+        <v>1012</v>
+      </c>
+      <c r="Q143">
+        <v>997</v>
+      </c>
+      <c r="R143">
+        <v>19</v>
+      </c>
+      <c r="S143">
+        <v>15</v>
+      </c>
+      <c r="T143">
+        <v>14</v>
+      </c>
+      <c r="U143">
+        <v>11</v>
+      </c>
+      <c r="V143">
+        <v>3</v>
+      </c>
+      <c r="X143">
+        <v>0</v>
+      </c>
+      <c r="AA143" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>95</v>
       </c>
@@ -4214,8 +11596,65 @@
       <c r="E144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F144">
+        <v>38</v>
+      </c>
+      <c r="G144">
+        <v>28</v>
+      </c>
+      <c r="H144">
+        <v>19</v>
+      </c>
+      <c r="I144">
+        <v>6</v>
+      </c>
+      <c r="J144">
+        <v>-5</v>
+      </c>
+      <c r="K144">
+        <v>-15</v>
+      </c>
+      <c r="L144">
+        <v>40</v>
+      </c>
+      <c r="M144">
+        <v>13</v>
+      </c>
+      <c r="N144">
+        <v>4</v>
+      </c>
+      <c r="O144">
+        <v>1015</v>
+      </c>
+      <c r="P144">
+        <v>1012</v>
+      </c>
+      <c r="Q144">
+        <v>996</v>
+      </c>
+      <c r="R144">
+        <v>14</v>
+      </c>
+      <c r="S144">
+        <v>14</v>
+      </c>
+      <c r="T144">
+        <v>14</v>
+      </c>
+      <c r="U144">
+        <v>19</v>
+      </c>
+      <c r="V144">
+        <v>6</v>
+      </c>
+      <c r="X144">
+        <v>0</v>
+      </c>
+      <c r="AA144" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>95</v>
       </c>
@@ -4231,8 +11670,65 @@
       <c r="E145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F145">
+        <v>36</v>
+      </c>
+      <c r="G145">
+        <v>27</v>
+      </c>
+      <c r="H145">
+        <v>18</v>
+      </c>
+      <c r="I145">
+        <v>3</v>
+      </c>
+      <c r="J145">
+        <v>-6</v>
+      </c>
+      <c r="K145">
+        <v>-14</v>
+      </c>
+      <c r="L145">
+        <v>33</v>
+      </c>
+      <c r="M145">
+        <v>13</v>
+      </c>
+      <c r="N145">
+        <v>4</v>
+      </c>
+      <c r="O145">
+        <v>1016</v>
+      </c>
+      <c r="P145">
+        <v>1013</v>
+      </c>
+      <c r="Q145">
+        <v>1000</v>
+      </c>
+      <c r="R145">
+        <v>14</v>
+      </c>
+      <c r="S145">
+        <v>14</v>
+      </c>
+      <c r="T145">
+        <v>14</v>
+      </c>
+      <c r="U145">
+        <v>19</v>
+      </c>
+      <c r="V145">
+        <v>3</v>
+      </c>
+      <c r="X145">
+        <v>0</v>
+      </c>
+      <c r="AA145" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>95</v>
       </c>
@@ -4248,8 +11744,65 @@
       <c r="E146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F146">
+        <v>37</v>
+      </c>
+      <c r="G146">
+        <v>28</v>
+      </c>
+      <c r="H146">
+        <v>19</v>
+      </c>
+      <c r="I146">
+        <v>3</v>
+      </c>
+      <c r="J146">
+        <v>-4</v>
+      </c>
+      <c r="K146">
+        <v>-13</v>
+      </c>
+      <c r="L146">
+        <v>30</v>
+      </c>
+      <c r="M146">
+        <v>13</v>
+      </c>
+      <c r="N146">
+        <v>4</v>
+      </c>
+      <c r="O146">
+        <v>1017</v>
+      </c>
+      <c r="P146">
+        <v>1014</v>
+      </c>
+      <c r="Q146">
+        <v>1000</v>
+      </c>
+      <c r="R146">
+        <v>14</v>
+      </c>
+      <c r="S146">
+        <v>14</v>
+      </c>
+      <c r="T146">
+        <v>14</v>
+      </c>
+      <c r="U146">
+        <v>14</v>
+      </c>
+      <c r="V146">
+        <v>3</v>
+      </c>
+      <c r="X146">
+        <v>0</v>
+      </c>
+      <c r="AA146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>95</v>
       </c>
@@ -4265,8 +11818,65 @@
       <c r="E147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F147">
+        <v>37</v>
+      </c>
+      <c r="G147">
+        <v>28</v>
+      </c>
+      <c r="H147">
+        <v>18</v>
+      </c>
+      <c r="I147">
+        <v>5</v>
+      </c>
+      <c r="J147">
+        <v>-3</v>
+      </c>
+      <c r="K147">
+        <v>-12</v>
+      </c>
+      <c r="L147">
+        <v>37</v>
+      </c>
+      <c r="M147">
+        <v>14</v>
+      </c>
+      <c r="N147">
+        <v>4</v>
+      </c>
+      <c r="O147">
+        <v>1017</v>
+      </c>
+      <c r="P147">
+        <v>1014</v>
+      </c>
+      <c r="Q147">
+        <v>1000</v>
+      </c>
+      <c r="R147">
+        <v>14</v>
+      </c>
+      <c r="S147">
+        <v>11</v>
+      </c>
+      <c r="T147">
+        <v>10</v>
+      </c>
+      <c r="U147">
+        <v>14</v>
+      </c>
+      <c r="V147">
+        <v>5</v>
+      </c>
+      <c r="X147">
+        <v>0</v>
+      </c>
+      <c r="AA147" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>95</v>
       </c>
@@ -4282,8 +11892,68 @@
       <c r="E148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F148">
+        <v>38</v>
+      </c>
+      <c r="G148">
+        <v>30</v>
+      </c>
+      <c r="H148">
+        <v>23</v>
+      </c>
+      <c r="I148">
+        <v>5</v>
+      </c>
+      <c r="J148">
+        <v>-2</v>
+      </c>
+      <c r="K148">
+        <v>-11</v>
+      </c>
+      <c r="L148">
+        <v>31</v>
+      </c>
+      <c r="M148">
+        <v>14</v>
+      </c>
+      <c r="N148">
+        <v>4</v>
+      </c>
+      <c r="O148">
+        <v>1016</v>
+      </c>
+      <c r="P148">
+        <v>1013</v>
+      </c>
+      <c r="Q148">
+        <v>997</v>
+      </c>
+      <c r="R148">
+        <v>14</v>
+      </c>
+      <c r="S148">
+        <v>10</v>
+      </c>
+      <c r="T148">
+        <v>10</v>
+      </c>
+      <c r="U148">
+        <v>14</v>
+      </c>
+      <c r="V148">
+        <v>6</v>
+      </c>
+      <c r="X148">
+        <v>0</v>
+      </c>
+      <c r="Y148">
+        <v>1</v>
+      </c>
+      <c r="AA148" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>95</v>
       </c>
@@ -4299,8 +11969,68 @@
       <c r="E149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F149">
+        <v>38</v>
+      </c>
+      <c r="G149">
+        <v>31</v>
+      </c>
+      <c r="H149">
+        <v>23</v>
+      </c>
+      <c r="I149">
+        <v>11</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>-11</v>
+      </c>
+      <c r="L149">
+        <v>47</v>
+      </c>
+      <c r="M149">
+        <v>16</v>
+      </c>
+      <c r="N149">
+        <v>4</v>
+      </c>
+      <c r="O149">
+        <v>1015</v>
+      </c>
+      <c r="P149">
+        <v>1011</v>
+      </c>
+      <c r="Q149">
+        <v>996</v>
+      </c>
+      <c r="R149">
+        <v>14</v>
+      </c>
+      <c r="S149">
+        <v>10</v>
+      </c>
+      <c r="T149">
+        <v>10</v>
+      </c>
+      <c r="U149">
+        <v>19</v>
+      </c>
+      <c r="V149">
+        <v>5</v>
+      </c>
+      <c r="X149">
+        <v>0</v>
+      </c>
+      <c r="Y149">
+        <v>4</v>
+      </c>
+      <c r="AA149" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>95</v>
       </c>
@@ -4316,8 +12046,68 @@
       <c r="E150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F150">
+        <v>37</v>
+      </c>
+      <c r="G150">
+        <v>31</v>
+      </c>
+      <c r="H150">
+        <v>24</v>
+      </c>
+      <c r="I150">
+        <v>6</v>
+      </c>
+      <c r="J150">
+        <v>-2</v>
+      </c>
+      <c r="K150">
+        <v>-6</v>
+      </c>
+      <c r="L150">
+        <v>29</v>
+      </c>
+      <c r="M150">
+        <v>12</v>
+      </c>
+      <c r="N150">
+        <v>4</v>
+      </c>
+      <c r="O150">
+        <v>1015</v>
+      </c>
+      <c r="P150">
+        <v>1012</v>
+      </c>
+      <c r="Q150">
+        <v>996</v>
+      </c>
+      <c r="R150">
+        <v>14</v>
+      </c>
+      <c r="S150">
+        <v>10</v>
+      </c>
+      <c r="T150">
+        <v>10</v>
+      </c>
+      <c r="U150">
+        <v>19</v>
+      </c>
+      <c r="V150">
+        <v>8</v>
+      </c>
+      <c r="X150">
+        <v>0</v>
+      </c>
+      <c r="Y150">
+        <v>4</v>
+      </c>
+      <c r="AA150" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>95</v>
       </c>
@@ -4333,8 +12123,68 @@
       <c r="E151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F151">
+        <v>35</v>
+      </c>
+      <c r="G151">
+        <v>29</v>
+      </c>
+      <c r="H151">
+        <v>22</v>
+      </c>
+      <c r="I151">
+        <v>5</v>
+      </c>
+      <c r="J151">
+        <v>-2</v>
+      </c>
+      <c r="K151">
+        <v>-6</v>
+      </c>
+      <c r="L151">
+        <v>23</v>
+      </c>
+      <c r="M151">
+        <v>13</v>
+      </c>
+      <c r="N151">
+        <v>4</v>
+      </c>
+      <c r="O151">
+        <v>1015</v>
+      </c>
+      <c r="P151">
+        <v>1011</v>
+      </c>
+      <c r="Q151">
+        <v>995</v>
+      </c>
+      <c r="R151">
+        <v>14</v>
+      </c>
+      <c r="S151">
+        <v>10</v>
+      </c>
+      <c r="T151">
+        <v>10</v>
+      </c>
+      <c r="U151">
+        <v>19</v>
+      </c>
+      <c r="V151">
+        <v>8</v>
+      </c>
+      <c r="X151">
+        <v>0</v>
+      </c>
+      <c r="Y151">
+        <v>2</v>
+      </c>
+      <c r="AA151" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>95</v>
       </c>
@@ -4350,8 +12200,68 @@
       <c r="E152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F152">
+        <v>36</v>
+      </c>
+      <c r="G152">
+        <v>27</v>
+      </c>
+      <c r="H152">
+        <v>18</v>
+      </c>
+      <c r="I152">
+        <v>5</v>
+      </c>
+      <c r="J152">
+        <v>-2</v>
+      </c>
+      <c r="K152">
+        <v>-9</v>
+      </c>
+      <c r="L152">
+        <v>32</v>
+      </c>
+      <c r="M152">
+        <v>16</v>
+      </c>
+      <c r="N152">
+        <v>4</v>
+      </c>
+      <c r="O152">
+        <v>1013</v>
+      </c>
+      <c r="P152">
+        <v>1010</v>
+      </c>
+      <c r="Q152">
+        <v>997</v>
+      </c>
+      <c r="R152">
+        <v>18</v>
+      </c>
+      <c r="S152">
+        <v>11</v>
+      </c>
+      <c r="T152">
+        <v>10</v>
+      </c>
+      <c r="U152">
+        <v>19</v>
+      </c>
+      <c r="V152">
+        <v>5</v>
+      </c>
+      <c r="X152">
+        <v>0</v>
+      </c>
+      <c r="Y152">
+        <v>1</v>
+      </c>
+      <c r="AA152" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>95</v>
       </c>
@@ -4367,8 +12277,68 @@
       <c r="E153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F153">
+        <v>36</v>
+      </c>
+      <c r="G153">
+        <v>27</v>
+      </c>
+      <c r="H153">
+        <v>18</v>
+      </c>
+      <c r="I153">
+        <v>7</v>
+      </c>
+      <c r="J153">
+        <v>-2</v>
+      </c>
+      <c r="K153">
+        <v>-10</v>
+      </c>
+      <c r="L153">
+        <v>43</v>
+      </c>
+      <c r="M153">
+        <v>17</v>
+      </c>
+      <c r="N153">
+        <v>4</v>
+      </c>
+      <c r="O153">
+        <v>1015</v>
+      </c>
+      <c r="P153">
+        <v>1012</v>
+      </c>
+      <c r="Q153">
+        <v>998</v>
+      </c>
+      <c r="R153">
+        <v>14</v>
+      </c>
+      <c r="S153">
+        <v>11</v>
+      </c>
+      <c r="T153">
+        <v>10</v>
+      </c>
+      <c r="U153">
+        <v>11</v>
+      </c>
+      <c r="V153">
+        <v>3</v>
+      </c>
+      <c r="X153">
+        <v>0</v>
+      </c>
+      <c r="Y153">
+        <v>1</v>
+      </c>
+      <c r="AA153" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>95</v>
       </c>
@@ -4384,8 +12354,68 @@
       <c r="E154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F154">
+        <v>36</v>
+      </c>
+      <c r="G154">
+        <v>28</v>
+      </c>
+      <c r="H154">
+        <v>19</v>
+      </c>
+      <c r="I154">
+        <v>3</v>
+      </c>
+      <c r="J154">
+        <v>-6</v>
+      </c>
+      <c r="K154">
+        <v>-13</v>
+      </c>
+      <c r="L154">
+        <v>35</v>
+      </c>
+      <c r="M154">
+        <v>13</v>
+      </c>
+      <c r="N154">
+        <v>4</v>
+      </c>
+      <c r="O154">
+        <v>1017</v>
+      </c>
+      <c r="P154">
+        <v>1014</v>
+      </c>
+      <c r="Q154">
+        <v>995</v>
+      </c>
+      <c r="R154">
+        <v>14</v>
+      </c>
+      <c r="S154">
+        <v>13</v>
+      </c>
+      <c r="T154">
+        <v>10</v>
+      </c>
+      <c r="U154">
+        <v>14</v>
+      </c>
+      <c r="V154">
+        <v>5</v>
+      </c>
+      <c r="X154">
+        <v>0</v>
+      </c>
+      <c r="Y154">
+        <v>1</v>
+      </c>
+      <c r="AA154" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>95</v>
       </c>
@@ -4401,8 +12431,68 @@
       <c r="E155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F155">
+        <v>35</v>
+      </c>
+      <c r="G155">
+        <v>27</v>
+      </c>
+      <c r="H155">
+        <v>19</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>-4</v>
+      </c>
+      <c r="K155">
+        <v>-10</v>
+      </c>
+      <c r="L155">
+        <v>24</v>
+      </c>
+      <c r="M155">
+        <v>12</v>
+      </c>
+      <c r="N155">
+        <v>4</v>
+      </c>
+      <c r="O155">
+        <v>1018</v>
+      </c>
+      <c r="P155">
+        <v>1014</v>
+      </c>
+      <c r="Q155">
+        <v>1001</v>
+      </c>
+      <c r="R155">
+        <v>14</v>
+      </c>
+      <c r="S155">
+        <v>11</v>
+      </c>
+      <c r="T155">
+        <v>10</v>
+      </c>
+      <c r="U155">
+        <v>11</v>
+      </c>
+      <c r="V155">
+        <v>3</v>
+      </c>
+      <c r="X155">
+        <v>0</v>
+      </c>
+      <c r="Y155">
+        <v>2</v>
+      </c>
+      <c r="AA155" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>95</v>
       </c>
@@ -4418,8 +12508,68 @@
       <c r="E156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F156">
+        <v>34</v>
+      </c>
+      <c r="G156">
+        <v>28</v>
+      </c>
+      <c r="H156">
+        <v>21</v>
+      </c>
+      <c r="I156">
+        <v>2</v>
+      </c>
+      <c r="J156">
+        <v>-3</v>
+      </c>
+      <c r="K156">
+        <v>-6</v>
+      </c>
+      <c r="L156">
+        <v>25</v>
+      </c>
+      <c r="M156">
+        <v>13</v>
+      </c>
+      <c r="N156">
+        <v>4</v>
+      </c>
+      <c r="O156">
+        <v>1018</v>
+      </c>
+      <c r="P156">
+        <v>1015</v>
+      </c>
+      <c r="Q156">
+        <v>1001</v>
+      </c>
+      <c r="R156">
+        <v>14</v>
+      </c>
+      <c r="S156">
+        <v>10</v>
+      </c>
+      <c r="T156">
+        <v>10</v>
+      </c>
+      <c r="U156">
+        <v>23</v>
+      </c>
+      <c r="V156">
+        <v>6</v>
+      </c>
+      <c r="X156">
+        <v>0</v>
+      </c>
+      <c r="Y156">
+        <v>4</v>
+      </c>
+      <c r="AA156" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>95</v>
       </c>
@@ -4435,8 +12585,68 @@
       <c r="E157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F157">
+        <v>34</v>
+      </c>
+      <c r="G157">
+        <v>28</v>
+      </c>
+      <c r="H157">
+        <v>21</v>
+      </c>
+      <c r="I157">
+        <v>3</v>
+      </c>
+      <c r="J157">
+        <v>-4</v>
+      </c>
+      <c r="K157">
+        <v>-14</v>
+      </c>
+      <c r="L157">
+        <v>29</v>
+      </c>
+      <c r="M157">
+        <v>12</v>
+      </c>
+      <c r="N157">
+        <v>4</v>
+      </c>
+      <c r="O157">
+        <v>1019</v>
+      </c>
+      <c r="P157">
+        <v>1015</v>
+      </c>
+      <c r="Q157">
+        <v>1002</v>
+      </c>
+      <c r="R157">
+        <v>14</v>
+      </c>
+      <c r="S157">
+        <v>10</v>
+      </c>
+      <c r="T157">
+        <v>10</v>
+      </c>
+      <c r="U157">
+        <v>19</v>
+      </c>
+      <c r="V157">
+        <v>5</v>
+      </c>
+      <c r="X157">
+        <v>0</v>
+      </c>
+      <c r="Y157">
+        <v>4</v>
+      </c>
+      <c r="AA157" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>95</v>
       </c>
@@ -4452,8 +12662,71 @@
       <c r="E158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F158">
+        <v>34</v>
+      </c>
+      <c r="G158">
+        <v>24</v>
+      </c>
+      <c r="H158">
+        <v>16</v>
+      </c>
+      <c r="I158">
+        <v>3</v>
+      </c>
+      <c r="J158">
+        <v>-7</v>
+      </c>
+      <c r="K158">
+        <v>-18</v>
+      </c>
+      <c r="L158">
+        <v>37</v>
+      </c>
+      <c r="M158">
+        <v>13</v>
+      </c>
+      <c r="N158">
+        <v>4</v>
+      </c>
+      <c r="O158">
+        <v>1018</v>
+      </c>
+      <c r="P158">
+        <v>1015</v>
+      </c>
+      <c r="Q158">
+        <v>1001</v>
+      </c>
+      <c r="R158">
+        <v>14</v>
+      </c>
+      <c r="S158">
+        <v>11</v>
+      </c>
+      <c r="T158">
+        <v>10</v>
+      </c>
+      <c r="U158">
+        <v>14</v>
+      </c>
+      <c r="V158">
+        <v>5</v>
+      </c>
+      <c r="W158">
+        <v>45</v>
+      </c>
+      <c r="X158">
+        <v>0</v>
+      </c>
+      <c r="Y158">
+        <v>1</v>
+      </c>
+      <c r="AA158" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>95</v>
       </c>
@@ -4469,8 +12742,68 @@
       <c r="E159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F159">
+        <v>34</v>
+      </c>
+      <c r="G159">
+        <v>26</v>
+      </c>
+      <c r="H159">
+        <v>17</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>-4</v>
+      </c>
+      <c r="K159">
+        <v>-12</v>
+      </c>
+      <c r="L159">
+        <v>30</v>
+      </c>
+      <c r="M159">
+        <v>14</v>
+      </c>
+      <c r="N159">
+        <v>4</v>
+      </c>
+      <c r="O159">
+        <v>1019</v>
+      </c>
+      <c r="P159">
+        <v>1015</v>
+      </c>
+      <c r="Q159">
+        <v>1002</v>
+      </c>
+      <c r="R159">
+        <v>14</v>
+      </c>
+      <c r="S159">
+        <v>11</v>
+      </c>
+      <c r="T159">
+        <v>10</v>
+      </c>
+      <c r="U159">
+        <v>14</v>
+      </c>
+      <c r="V159">
+        <v>3</v>
+      </c>
+      <c r="X159">
+        <v>0</v>
+      </c>
+      <c r="Y159">
+        <v>1</v>
+      </c>
+      <c r="AA159" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>95</v>
       </c>
@@ -4485,6 +12818,63 @@
       </c>
       <c r="E160">
         <v>1</v>
+      </c>
+      <c r="F160">
+        <v>33</v>
+      </c>
+      <c r="G160">
+        <v>26</v>
+      </c>
+      <c r="H160">
+        <v>18</v>
+      </c>
+      <c r="I160">
+        <v>3</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>-4</v>
+      </c>
+      <c r="L160">
+        <v>32</v>
+      </c>
+      <c r="M160">
+        <v>21</v>
+      </c>
+      <c r="N160">
+        <v>5</v>
+      </c>
+      <c r="O160">
+        <v>1020</v>
+      </c>
+      <c r="P160">
+        <v>1017</v>
+      </c>
+      <c r="Q160">
+        <v>1003</v>
+      </c>
+      <c r="R160">
+        <v>14</v>
+      </c>
+      <c r="S160">
+        <v>14</v>
+      </c>
+      <c r="T160">
+        <v>14</v>
+      </c>
+      <c r="U160">
+        <v>8</v>
+      </c>
+      <c r="V160">
+        <v>3</v>
+      </c>
+      <c r="X160">
+        <v>0</v>
+      </c>
+      <c r="AA160" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
